--- a/othello/player_prog/result/rate_excel/EPT1730.xlsx
+++ b/othello/player_prog/result/rate_excel/EPT1730.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shukai3264/takao/othello/player_prog/result/board1rateT_EPT1730/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B305576-6776-C94B-A58A-A1719F9F5698}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDA243C-4EBC-F046-B156-614CEBD1B063}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -395,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="J104" sqref="J104"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102:J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -435,31 +435,31 @@
         <v>130</v>
       </c>
       <c r="B2">
-        <v>-3208.0412144187922</v>
+        <v>608.7865319069399</v>
       </c>
       <c r="C2">
-        <v>-3068.150599903865</v>
+        <v>1061.27600929901</v>
       </c>
       <c r="D2">
-        <v>-3061.1472228356461</v>
+        <v>1077.70446162844</v>
       </c>
       <c r="E2">
-        <v>-3026.5388436936</v>
+        <v>1195.5310541211511</v>
       </c>
       <c r="F2">
-        <v>-2880.9939452863232</v>
+        <v>1817.8756811868011</v>
       </c>
       <c r="G2">
-        <v>-2794.1699102126699</v>
+        <v>2223.9916612645329</v>
       </c>
       <c r="H2">
-        <v>-2971.5202409888338</v>
+        <v>1370.5954937941569</v>
       </c>
       <c r="I2">
-        <v>-2868.5790326119541</v>
+        <v>1837.071885194742</v>
       </c>
       <c r="J2">
-        <v>-2811.022216271756</v>
+        <v>2307.1672216042261</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -467,31 +467,31 @@
         <v>452</v>
       </c>
       <c r="B3">
-        <v>-5279.2985659747383</v>
+        <v>674.86127264454012</v>
       </c>
       <c r="C3">
-        <v>-5178.1248186146868</v>
+        <v>1077.098115587557</v>
       </c>
       <c r="D3">
-        <v>-5169.2351765314179</v>
+        <v>1167.976669544325</v>
       </c>
       <c r="E3">
-        <v>-5158.9649230865198</v>
+        <v>1218.5967224913991</v>
       </c>
       <c r="F3">
-        <v>-5054.9420980446193</v>
+        <v>1809.5508326158661</v>
       </c>
       <c r="G3">
-        <v>-5046.7878521598868</v>
+        <v>2000.71090388634</v>
       </c>
       <c r="H3">
-        <v>-5110.4439869382959</v>
+        <v>1373.9282090825291</v>
       </c>
       <c r="I3">
-        <v>-5032.9857077527831</v>
+        <v>1934.274877084606</v>
       </c>
       <c r="J3">
-        <v>-4988.0599433368279</v>
+        <v>2243.0023970628358</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -499,31 +499,31 @@
         <v>789</v>
       </c>
       <c r="B4">
-        <v>-2762.9881450689431</v>
+        <v>606.83085302700351</v>
       </c>
       <c r="C4">
-        <v>-2616.1162479956811</v>
+        <v>1033.1693265744091</v>
       </c>
       <c r="D4">
-        <v>-2614.6592832946881</v>
+        <v>1041.4351895997579</v>
       </c>
       <c r="E4">
-        <v>-2574.1700281372032</v>
+        <v>1160.05441670748</v>
       </c>
       <c r="F4">
-        <v>-2410.5754699439772</v>
+        <v>1841.347404136621</v>
       </c>
       <c r="G4">
-        <v>-2306.145886162748</v>
+        <v>2292.2566444733602</v>
       </c>
       <c r="H4">
-        <v>-2515.5411679662839</v>
+        <v>1337.1437831207511</v>
       </c>
       <c r="I4">
-        <v>-2398.5998476731229</v>
+        <v>1872.7646180410279</v>
       </c>
       <c r="J4">
-        <v>-2331.897245311171</v>
+        <v>2314.9977643195862</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -531,31 +531,31 @@
         <v>680</v>
       </c>
       <c r="B5">
-        <v>762.36412940478863</v>
+        <v>771.73793067493511</v>
       </c>
       <c r="C5">
-        <v>990.49346574842275</v>
+        <v>1001.369620463479</v>
       </c>
       <c r="D5">
-        <v>1199.543912641647</v>
+        <v>1210.984242307615</v>
       </c>
       <c r="E5">
-        <v>1356.944005377753</v>
+        <v>1370.663277096043</v>
       </c>
       <c r="F5">
-        <v>1852.7271752103291</v>
+        <v>1870.3316338187681</v>
       </c>
       <c r="G5">
-        <v>2127.2866226737979</v>
+        <v>2146.38371243043</v>
       </c>
       <c r="H5">
-        <v>1312.1365053337511</v>
+        <v>1324.5076347127799</v>
       </c>
       <c r="I5">
-        <v>1657.7231063548511</v>
+        <v>1673.856892982807</v>
       </c>
       <c r="J5">
-        <v>2111.5892069024708</v>
+        <v>2130.1650555131368</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -563,31 +563,31 @@
         <v>891</v>
       </c>
       <c r="B6">
-        <v>763.57878407365365</v>
+        <v>772.9561716281795</v>
       </c>
       <c r="C6">
-        <v>991.56737771087433</v>
+        <v>1002.446760079403</v>
       </c>
       <c r="D6">
-        <v>1203.2875986006991</v>
+        <v>1214.738843013361</v>
       </c>
       <c r="E6">
-        <v>1356.9836505246481</v>
+        <v>1370.6853799247931</v>
       </c>
       <c r="F6">
-        <v>1845.2045027793961</v>
+        <v>1862.673911259059</v>
       </c>
       <c r="G6">
-        <v>2133.3822333549051</v>
+        <v>2152.3775613513599</v>
       </c>
       <c r="H6">
-        <v>1312.285596618746</v>
+        <v>1324.6463174729449</v>
       </c>
       <c r="I6">
-        <v>1652.867525938892</v>
+        <v>1668.878414612559</v>
       </c>
       <c r="J6">
-        <v>2112.0836241148518</v>
+        <v>2130.5966406583411</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -595,31 +595,31 @@
         <v>544</v>
       </c>
       <c r="B7">
-        <v>-2914.368416275674</v>
+        <v>817.85917389176723</v>
       </c>
       <c r="C7">
-        <v>-2782.886024450755</v>
+        <v>1167.642882614952</v>
       </c>
       <c r="D7">
-        <v>-2761.7819641866872</v>
+        <v>1243.547018119119</v>
       </c>
       <c r="E7">
-        <v>-2719.813845243139</v>
+        <v>1362.1132948504289</v>
       </c>
       <c r="F7">
-        <v>-2546.8308467135021</v>
+        <v>1993.143837068829</v>
       </c>
       <c r="G7">
-        <v>-2563.005061266359</v>
+        <v>2013.879231069001</v>
       </c>
       <c r="H7">
-        <v>-2689.9539909037012</v>
+        <v>1407.3476863281569</v>
       </c>
       <c r="I7">
-        <v>-2608.3153114552438</v>
+        <v>1676.3749362966639</v>
       </c>
       <c r="J7">
-        <v>-2559.4720264695352</v>
+        <v>1818.0919397610839</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -627,31 +627,31 @@
         <v>954</v>
       </c>
       <c r="B8">
-        <v>-2769.4773592667411</v>
+        <v>589.19242745201996</v>
       </c>
       <c r="C8">
-        <v>-2622.3626161597108</v>
+        <v>1046.695998215351</v>
       </c>
       <c r="D8">
-        <v>-2599.2393004845012</v>
+        <v>1094.8962767517521</v>
       </c>
       <c r="E8">
-        <v>-2567.8310371844591</v>
+        <v>1192.3676010173831</v>
       </c>
       <c r="F8">
-        <v>-2401.438215212775</v>
+        <v>1844.7838413165589</v>
       </c>
       <c r="G8">
-        <v>-2302.4030845050911</v>
+        <v>2279.4343703599989</v>
       </c>
       <c r="H8">
-        <v>-2511.5523088161949</v>
+        <v>1364.9708655935581</v>
       </c>
       <c r="I8">
-        <v>-2396.690254595399</v>
+        <v>1860.1677824118231</v>
       </c>
       <c r="J8">
-        <v>-2343.9155151321238</v>
+        <v>2227.4908368815532</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -659,31 +659,31 @@
         <v>995</v>
       </c>
       <c r="B9">
-        <v>11.63505444898389</v>
+        <v>651.89475440438491</v>
       </c>
       <c r="C9">
-        <v>329.01139906251092</v>
+        <v>1103.54263427304</v>
       </c>
       <c r="D9">
-        <v>334.19300693401061</v>
+        <v>1108.6346421064129</v>
       </c>
       <c r="E9">
-        <v>395.1778073494371</v>
+        <v>1198.5364133725141</v>
       </c>
       <c r="F9">
-        <v>776.64829303475904</v>
+        <v>1856.4687971223241</v>
       </c>
       <c r="G9">
-        <v>992.6339972684134</v>
+        <v>2196.426299102086</v>
       </c>
       <c r="H9">
-        <v>507.41714633771551</v>
+        <v>1345.8391583040941</v>
       </c>
       <c r="I9">
-        <v>752.86332272671791</v>
+        <v>1814.180168750536</v>
       </c>
       <c r="J9">
-        <v>1023.3276234001549</v>
+        <v>2224.4771325646152</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -691,31 +691,31 @@
         <v>361</v>
       </c>
       <c r="B10">
-        <v>6085.2359732973691</v>
+        <v>512.31030709822949</v>
       </c>
       <c r="C10">
-        <v>15318.38481704645</v>
+        <v>985.65409149406241</v>
       </c>
       <c r="D10">
-        <v>18494.002780316401</v>
+        <v>1082.0358396253539</v>
       </c>
       <c r="E10">
-        <v>24262.69929083054</v>
+        <v>1174.717498782227</v>
       </c>
       <c r="F10">
-        <v>42009.661796419241</v>
+        <v>1992.560199660646</v>
       </c>
       <c r="G10">
-        <v>51489.728300559647</v>
+        <v>2403.3820685518522</v>
       </c>
       <c r="H10">
-        <v>18366.829283609401</v>
+        <v>1248.0995924833001</v>
       </c>
       <c r="I10">
-        <v>35421.737604473477</v>
+        <v>1844.5909388347659</v>
       </c>
       <c r="J10">
-        <v>44903.824588527757</v>
+        <v>2256.649463469565</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -723,31 +723,31 @@
         <v>673</v>
       </c>
       <c r="B11">
-        <v>589.08883383596162</v>
+        <v>668.65107198320607</v>
       </c>
       <c r="C11">
-        <v>975.9793393210366</v>
+        <v>1080.365974599669</v>
       </c>
       <c r="D11">
-        <v>1005.999162127716</v>
+        <v>1110.305937185411</v>
       </c>
       <c r="E11">
-        <v>1112.885511557063</v>
+        <v>1226.2973505755519</v>
       </c>
       <c r="F11">
-        <v>1684.284783020473</v>
+        <v>1843.181273476669</v>
       </c>
       <c r="G11">
-        <v>1983.5937287999279</v>
+        <v>2170.094491600219</v>
       </c>
       <c r="H11">
-        <v>1361.11277946052</v>
+        <v>1488.4300561920541</v>
       </c>
       <c r="I11">
-        <v>1514.4830745269551</v>
+        <v>1659.6151846321709</v>
       </c>
       <c r="J11">
-        <v>2063.0282551521768</v>
+        <v>2253.0586597550468</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -755,31 +755,31 @@
         <v>52</v>
       </c>
       <c r="B12">
-        <v>-5479.8845589335851</v>
+        <v>541.59551833818591</v>
       </c>
       <c r="C12">
-        <v>-5380.2259981932966</v>
+        <v>1050.6618517938291</v>
       </c>
       <c r="D12">
-        <v>-5374.2185128390074</v>
+        <v>1031.2080245230361</v>
       </c>
       <c r="E12">
-        <v>-5348.7090009713193</v>
+        <v>1159.141118417909</v>
       </c>
       <c r="F12">
-        <v>-5240.1465208261206</v>
+        <v>2022.9988583064951</v>
       </c>
       <c r="G12">
-        <v>-5188.0709225404398</v>
+        <v>2299.1530346116729</v>
       </c>
       <c r="H12">
-        <v>-5314.71860460271</v>
+        <v>1323.7076742489321</v>
       </c>
       <c r="I12">
-        <v>-5252.4060504489298</v>
+        <v>1848.5782590533761</v>
       </c>
       <c r="J12">
-        <v>-5228.2785664509429</v>
+        <v>2222.955660706567</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -787,31 +787,31 @@
         <v>399</v>
       </c>
       <c r="B13">
-        <v>694.21619481032872</v>
+        <v>730.89411947385065</v>
       </c>
       <c r="C13">
-        <v>1093.113941645641</v>
+        <v>1141.2025017069</v>
       </c>
       <c r="D13">
-        <v>1119.483125356204</v>
+        <v>1167.315694105464</v>
       </c>
       <c r="E13">
-        <v>1220.12945551848</v>
+        <v>1271.965599695488</v>
       </c>
       <c r="F13">
-        <v>1740.440690195428</v>
+        <v>1807.351446393418</v>
       </c>
       <c r="G13">
-        <v>2073.2926050860979</v>
+        <v>2148.16105298102</v>
       </c>
       <c r="H13">
-        <v>1426.1512289705111</v>
+        <v>1481.6196265527351</v>
       </c>
       <c r="I13">
-        <v>1681.6114765285231</v>
+        <v>1748.05771132981</v>
       </c>
       <c r="J13">
-        <v>1932.819939739961</v>
+        <v>2003.4322477613159</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -819,31 +819,31 @@
         <v>417</v>
       </c>
       <c r="B14">
-        <v>-3126.148383906198</v>
+        <v>690.53714010910335</v>
       </c>
       <c r="C14">
-        <v>-3013.384531162048</v>
+        <v>1018.816331845136</v>
       </c>
       <c r="D14">
-        <v>-2985.9750319089489</v>
+        <v>1118.067789205189</v>
       </c>
       <c r="E14">
-        <v>-2936.430997700716</v>
+        <v>1269.199147683463</v>
       </c>
       <c r="F14">
-        <v>-2780.229245864261</v>
+        <v>1959.3547585257099</v>
       </c>
       <c r="G14">
-        <v>-2799.021196562057</v>
+        <v>1962.1521984446811</v>
       </c>
       <c r="H14">
-        <v>-2907.6055210116929</v>
+        <v>1329.345730586394</v>
       </c>
       <c r="I14">
-        <v>-2783.5757290348979</v>
+        <v>1911.8764221541039</v>
       </c>
       <c r="J14">
-        <v>-2696.1329299233171</v>
+        <v>2240.6504814462201</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -851,31 +851,31 @@
         <v>631</v>
       </c>
       <c r="B15">
-        <v>-2747.8309742215788</v>
+        <v>618.2064921293636</v>
       </c>
       <c r="C15">
-        <v>-2594.8941395260208</v>
+        <v>1079.941971334448</v>
       </c>
       <c r="D15">
-        <v>-2602.0649019720272</v>
+        <v>1046.116714061639</v>
       </c>
       <c r="E15">
-        <v>-2550.5073368964449</v>
+        <v>1204.826255390584</v>
       </c>
       <c r="F15">
-        <v>-2372.1622167868518</v>
+        <v>1912.506845830939</v>
       </c>
       <c r="G15">
-        <v>-2295.2952312068119</v>
+        <v>2221.937321554587</v>
       </c>
       <c r="H15">
-        <v>-2500.1196976992828</v>
+        <v>1369.695327180596</v>
       </c>
       <c r="I15">
-        <v>-2381.5522085522348</v>
+        <v>1862.4492621891511</v>
       </c>
       <c r="J15">
-        <v>-2331.50117180198</v>
+        <v>2184.3198103286909</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -883,31 +883,31 @@
         <v>648</v>
       </c>
       <c r="B16">
-        <v>3487.2851761580969</v>
+        <v>521.69779100728749</v>
       </c>
       <c r="C16">
-        <v>12213.72594177644</v>
+        <v>1008.481469265857</v>
       </c>
       <c r="D16">
-        <v>14428.886250625401</v>
+        <v>1078.340703401371</v>
       </c>
       <c r="E16">
-        <v>17836.933880900138</v>
+        <v>1178.4165966801329</v>
       </c>
       <c r="F16">
-        <v>31185.07307908592</v>
+        <v>1888.3141874431351</v>
       </c>
       <c r="G16">
-        <v>39137.596222173939</v>
+        <v>2340.613394340131</v>
       </c>
       <c r="H16">
-        <v>16258.809331831229</v>
+        <v>1398.5755905228029</v>
       </c>
       <c r="I16">
-        <v>27641.23693436537</v>
+        <v>1749.289519799064</v>
       </c>
       <c r="J16">
-        <v>36849.708284596578</v>
+        <v>2336.270747540219</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -915,31 +915,31 @@
         <v>714</v>
       </c>
       <c r="B17">
-        <v>-6906.0272046331302</v>
+        <v>584.15611025661372</v>
       </c>
       <c r="C17">
-        <v>-6811.5881988438032</v>
+        <v>1038.897889861438</v>
       </c>
       <c r="D17">
-        <v>-6832.6283495604875</v>
+        <v>1032.8548467446869</v>
       </c>
       <c r="E17">
-        <v>-6803.2971614874841</v>
+        <v>1182.491821566593</v>
       </c>
       <c r="F17">
-        <v>-6721.3832658535803</v>
+        <v>1886.1213595045399</v>
       </c>
       <c r="G17">
-        <v>-6705.4159965014596</v>
+        <v>2391.278426574785</v>
       </c>
       <c r="H17">
-        <v>-6773.4460816572519</v>
+        <v>1300.0886328420891</v>
       </c>
       <c r="I17">
-        <v>-6721.1137564192322</v>
+        <v>1871.986919349308</v>
       </c>
       <c r="J17">
-        <v>-6683.0646268563596</v>
+        <v>2212.123993299947</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -947,31 +947,31 @@
         <v>390</v>
       </c>
       <c r="B18">
-        <v>-5445.7688551698539</v>
+        <v>578.22585517334414</v>
       </c>
       <c r="C18">
-        <v>-5346.7905810875518</v>
+        <v>1054.9250132728421</v>
       </c>
       <c r="D18">
-        <v>-5340.2174625542748</v>
+        <v>1059.024462379225</v>
       </c>
       <c r="E18">
-        <v>-5313.6016608504706</v>
+        <v>1192.864522385215</v>
       </c>
       <c r="F18">
-        <v>-5221.7512364481554</v>
+        <v>1830.427965021071</v>
       </c>
       <c r="G18">
-        <v>-5156.2086513341428</v>
+        <v>2228.560457443145</v>
       </c>
       <c r="H18">
-        <v>-5275.1936574779602</v>
+        <v>1390.494742053866</v>
       </c>
       <c r="I18">
-        <v>-5216.827732296023</v>
+        <v>1827.049398759937</v>
       </c>
       <c r="J18">
-        <v>-5184.5119092785526</v>
+        <v>2338.4275835113522</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -979,31 +979,31 @@
         <v>615</v>
       </c>
       <c r="B19">
-        <v>-177.09701809078649</v>
+        <v>670.67774349007084</v>
       </c>
       <c r="C19">
-        <v>70.880199110443826</v>
+        <v>1051.680197829857</v>
       </c>
       <c r="D19">
-        <v>81.792611163075762</v>
+        <v>1065.8177622661431</v>
       </c>
       <c r="E19">
-        <v>174.81596252981171</v>
+        <v>1208.0843139253941</v>
       </c>
       <c r="F19">
-        <v>496.68750546945711</v>
+        <v>1839.751341400261</v>
       </c>
       <c r="G19">
-        <v>710.30801122820833</v>
+        <v>2229.8840083311379</v>
       </c>
       <c r="H19">
-        <v>266.05181593801359</v>
+        <v>1361.9401519245789</v>
       </c>
       <c r="I19">
-        <v>500.50799958413762</v>
+        <v>1834.8166159424479</v>
       </c>
       <c r="J19">
-        <v>712.03284033616512</v>
+        <v>2237.3478648901141</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1011,31 +1011,31 @@
         <v>566</v>
       </c>
       <c r="B20">
-        <v>-376.55790578385893</v>
+        <v>682.7015745589606</v>
       </c>
       <c r="C20">
-        <v>-105.0546791209464</v>
+        <v>1162.8532045655991</v>
       </c>
       <c r="D20">
-        <v>-113.9071841029418</v>
+        <v>1150.9894808791771</v>
       </c>
       <c r="E20">
-        <v>-49.891063750177409</v>
+        <v>1247.9171317879311</v>
       </c>
       <c r="F20">
-        <v>244.35134219849951</v>
+        <v>1770.067424812539</v>
       </c>
       <c r="G20">
-        <v>385.91560315176872</v>
+        <v>2036.113449853211</v>
       </c>
       <c r="H20">
-        <v>112.3589622127036</v>
+        <v>1529.177109065246</v>
       </c>
       <c r="I20">
-        <v>238.3679583795336</v>
+        <v>1743.5627658342321</v>
       </c>
       <c r="J20">
-        <v>452.01244631133488</v>
+        <v>2176.617858643102</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1043,31 +1043,31 @@
         <v>401</v>
       </c>
       <c r="B21">
-        <v>-1973.3089974573561</v>
+        <v>588.99299206319597</v>
       </c>
       <c r="C21">
-        <v>-1780.72342163184</v>
+        <v>1091.4625156648849</v>
       </c>
       <c r="D21">
-        <v>-1796.315755059022</v>
+        <v>1052.5488680366291</v>
       </c>
       <c r="E21">
-        <v>-1743.7037079447409</v>
+        <v>1186.275405771182</v>
       </c>
       <c r="F21">
-        <v>-1545.79413505091</v>
+        <v>1814.3971673722131</v>
       </c>
       <c r="G21">
-        <v>-1433.586648959249</v>
+        <v>2199.1185870802228</v>
       </c>
       <c r="H21">
-        <v>-1665.286338694322</v>
+        <v>1402.0291768888601</v>
       </c>
       <c r="I21">
-        <v>-1518.7535490059711</v>
+        <v>1917.7536103558141</v>
       </c>
       <c r="J21">
-        <v>-1444.814352202839</v>
+        <v>2247.4216767669991</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1075,31 +1075,31 @@
         <v>731</v>
       </c>
       <c r="B22">
-        <v>-687.08250635610261</v>
+        <v>600.11055777794184</v>
       </c>
       <c r="C22">
-        <v>-418.89877199181649</v>
+        <v>1107.088049616149</v>
       </c>
       <c r="D22">
-        <v>-436.72907428080032</v>
+        <v>1073.3022360865659</v>
       </c>
       <c r="E22">
-        <v>-357.97246249485841</v>
+        <v>1220.691852946567</v>
       </c>
       <c r="F22">
-        <v>-75.105548567939223</v>
+        <v>1869.327360571016</v>
       </c>
       <c r="G22">
-        <v>63.852546675480497</v>
+        <v>2185.5768184412041</v>
       </c>
       <c r="H22">
-        <v>-274.15216579661762</v>
+        <v>1351.3194054968519</v>
       </c>
       <c r="I22">
-        <v>-70.730717014297724</v>
+        <v>1877.0788098175451</v>
       </c>
       <c r="J22">
-        <v>98.628998668850997</v>
+        <v>2215.504909246155</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1107,31 +1107,31 @@
         <v>596</v>
       </c>
       <c r="B23">
-        <v>619.82750424253504</v>
+        <v>652.33599762355675</v>
       </c>
       <c r="C23">
-        <v>1052.9546375855291</v>
+        <v>1095.9397676830181</v>
       </c>
       <c r="D23">
-        <v>1034.7945895791479</v>
+        <v>1078.0052057078531</v>
       </c>
       <c r="E23">
-        <v>1170.7376159827011</v>
+        <v>1215.9099017650069</v>
       </c>
       <c r="F23">
-        <v>1767.161891567888</v>
+        <v>1843.565079178383</v>
       </c>
       <c r="G23">
-        <v>2098.4681151306481</v>
+        <v>2186.0074525619179</v>
       </c>
       <c r="H23">
-        <v>1300.1270988171341</v>
+        <v>1350.3599121886259</v>
       </c>
       <c r="I23">
-        <v>1776.427350743671</v>
+        <v>1851.105177584742</v>
       </c>
       <c r="J23">
-        <v>2138.4423574719071</v>
+        <v>2226.771505706894</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1139,31 +1139,31 @@
         <v>162</v>
       </c>
       <c r="B24">
-        <v>-1584.0393092917529</v>
+        <v>645.93318415505212</v>
       </c>
       <c r="C24">
-        <v>-1398.30999335297</v>
+        <v>1068.402852355239</v>
       </c>
       <c r="D24">
-        <v>-1389.88120576756</v>
+        <v>1095.6604744031499</v>
       </c>
       <c r="E24">
-        <v>-1345.9915624540549</v>
+        <v>1198.331954738816</v>
       </c>
       <c r="F24">
-        <v>-1139.7338195197119</v>
+        <v>1740.4523995351899</v>
       </c>
       <c r="G24">
-        <v>-987.93262039388935</v>
+        <v>2323.0524816140301</v>
       </c>
       <c r="H24">
-        <v>-1193.8114015970709</v>
+        <v>1540.1652529998751</v>
       </c>
       <c r="I24">
-        <v>-1147.0635099755309</v>
+        <v>1717.8714096505651</v>
       </c>
       <c r="J24">
-        <v>-997.94364645169537</v>
+        <v>2170.1299905480819</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1171,31 +1171,31 @@
         <v>745</v>
       </c>
       <c r="B25">
-        <v>-1925.879503958558</v>
+        <v>631.78429604399503</v>
       </c>
       <c r="C25">
-        <v>-1733.6759647283079</v>
+        <v>1102.3494058813001</v>
       </c>
       <c r="D25">
-        <v>-1734.1485431439551</v>
+        <v>1110.9630452683029</v>
       </c>
       <c r="E25">
-        <v>-1683.246120849878</v>
+        <v>1235.532366013118</v>
       </c>
       <c r="F25">
-        <v>-1473.957375746844</v>
+        <v>1935.2345318941209</v>
       </c>
       <c r="G25">
-        <v>-1411.1785774787611</v>
+        <v>2184.880287189379</v>
       </c>
       <c r="H25">
-        <v>-1639.7822286400669</v>
+        <v>1312.76546844991</v>
       </c>
       <c r="I25">
-        <v>-1496.223908363788</v>
+        <v>1821.85701925577</v>
       </c>
       <c r="J25">
-        <v>-1384.424582411986</v>
+        <v>2164.6335800041029</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1203,31 +1203,31 @@
         <v>827</v>
       </c>
       <c r="B26">
-        <v>457.35326815247021</v>
+        <v>685.10900845611673</v>
       </c>
       <c r="C26">
-        <v>836.8508060921846</v>
+        <v>1124.470710353778</v>
       </c>
       <c r="D26">
-        <v>828.69313464061486</v>
+        <v>1113.304023854967</v>
       </c>
       <c r="E26">
-        <v>920.48214937458033</v>
+        <v>1220.6176891571099</v>
       </c>
       <c r="F26">
-        <v>1402.3358612021391</v>
+        <v>1841.395600906955</v>
       </c>
       <c r="G26">
-        <v>1697.7726701250001</v>
+        <v>2186.2225453343972</v>
       </c>
       <c r="H26">
-        <v>1041.4463213916811</v>
+        <v>1354.6034924882649</v>
       </c>
       <c r="I26">
-        <v>1490.0661018306621</v>
+        <v>1948.28632888938</v>
       </c>
       <c r="J26">
-        <v>1564.6154354115199</v>
+        <v>2025.9906005590301</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1235,31 +1235,31 @@
         <v>708</v>
       </c>
       <c r="B27">
-        <v>-4910.4901048310549</v>
+        <v>496.37734337453179</v>
       </c>
       <c r="C27">
-        <v>-4806.243803905345</v>
+        <v>962.37496067325014</v>
       </c>
       <c r="D27">
-        <v>-4788.8272374750613</v>
+        <v>1077.0784304386059</v>
       </c>
       <c r="E27">
-        <v>-4763.4154634538327</v>
+        <v>1200.1675416867979</v>
       </c>
       <c r="F27">
-        <v>-4647.1432001666017</v>
+        <v>1917.4598382211909</v>
       </c>
       <c r="G27">
-        <v>-4632.5090232193797</v>
+        <v>2205.4513817006909</v>
       </c>
       <c r="H27">
-        <v>-4703.7903195203762</v>
+        <v>1461.684811048799</v>
       </c>
       <c r="I27">
-        <v>-4639.257187616653</v>
+        <v>1895.1465278929479</v>
       </c>
       <c r="J27">
-        <v>-4578.2070630448816</v>
+        <v>2284.2591649631881</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1267,31 +1267,31 @@
         <v>514</v>
       </c>
       <c r="B28">
-        <v>-6127.9782503418946</v>
+        <v>576.53038446252901</v>
       </c>
       <c r="C28">
-        <v>-6020.5938872326387</v>
+        <v>1100.9267947384369</v>
       </c>
       <c r="D28">
-        <v>-6039.3909387563626</v>
+        <v>1092.7007637550089</v>
       </c>
       <c r="E28">
-        <v>-6015.5173729592188</v>
+        <v>1201.579491745807</v>
       </c>
       <c r="F28">
-        <v>-5916.4526276723163</v>
+        <v>1932.2422411746561</v>
       </c>
       <c r="G28">
-        <v>-5903.7622861277359</v>
+        <v>2216.537447014307</v>
       </c>
       <c r="H28">
-        <v>-5969.682402463256</v>
+        <v>1394.5796482649509</v>
       </c>
       <c r="I28">
-        <v>-5922.6273680769982</v>
+        <v>1799.501683774562</v>
       </c>
       <c r="J28">
-        <v>-5868.1977477620367</v>
+        <v>2185.401545069743</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1299,31 +1299,31 @@
         <v>113</v>
       </c>
       <c r="B29">
-        <v>5297.8431902251468</v>
+        <v>556.29992691559733</v>
       </c>
       <c r="C29">
-        <v>11025.158282506311</v>
+        <v>1015.74890064123</v>
       </c>
       <c r="D29">
-        <v>21411.521161265569</v>
+        <v>1060.554779115691</v>
       </c>
       <c r="E29">
-        <v>15263.82283942755</v>
+        <v>1146.26861943068</v>
       </c>
       <c r="F29">
-        <v>21609.309386520599</v>
+        <v>1812.5310421260781</v>
       </c>
       <c r="G29">
-        <v>28667.294574391661</v>
+        <v>2252.7465513445632</v>
       </c>
       <c r="H29">
-        <v>13014.738019899631</v>
+        <v>1388.0331416329029</v>
       </c>
       <c r="I29">
-        <v>33655.426939907789</v>
+        <v>1917.470367390536</v>
       </c>
       <c r="J29">
-        <v>41270.865089723738</v>
+        <v>2350.3466714027231</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1331,31 +1331,31 @@
         <v>541</v>
       </c>
       <c r="B30">
-        <v>3076.78765646274</v>
+        <v>345.52389132446069</v>
       </c>
       <c r="C30">
-        <v>7193.2540805092012</v>
+        <v>858.21677730168028</v>
       </c>
       <c r="D30">
-        <v>10587.984458200461</v>
+        <v>946.29145620635722</v>
       </c>
       <c r="E30">
-        <v>13895.47108267027</v>
+        <v>1083.4716992268311</v>
       </c>
       <c r="F30">
-        <v>35145.590742425302</v>
+        <v>2160.8656201613589</v>
       </c>
       <c r="G30">
-        <v>29100.521792288211</v>
+        <v>2493.752682073301</v>
       </c>
       <c r="H30">
-        <v>13822.726579835609</v>
+        <v>1288.6961899474891</v>
       </c>
       <c r="I30">
-        <v>22982.157742662741</v>
+        <v>1844.807842674636</v>
       </c>
       <c r="J30">
-        <v>32235.70251398029</v>
+        <v>2478.373841083881</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1363,31 +1363,31 @@
         <v>675</v>
       </c>
       <c r="B31">
-        <v>6655.5283840021684</v>
+        <v>424.01483483606103</v>
       </c>
       <c r="C31">
-        <v>13996.15772573795</v>
+        <v>1020.512164277392</v>
       </c>
       <c r="D31">
-        <v>12375.61217622464</v>
+        <v>1016.957203649215</v>
       </c>
       <c r="E31">
-        <v>15242.9015013218</v>
+        <v>1156.9412068259601</v>
       </c>
       <c r="F31">
-        <v>32725.048938654199</v>
+        <v>2009.219825709632</v>
       </c>
       <c r="G31">
-        <v>34479.431959519126</v>
+        <v>2318.7940083597</v>
       </c>
       <c r="H31">
-        <v>19068.396777929629</v>
+        <v>1369.6141770994841</v>
       </c>
       <c r="I31">
-        <v>26619.710777818891</v>
+        <v>1855.561346293694</v>
       </c>
       <c r="J31">
-        <v>35208.113728772107</v>
+        <v>2328.385232948865</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1395,31 +1395,31 @@
         <v>348</v>
       </c>
       <c r="B32">
-        <v>-4436.7565514817379</v>
+        <v>864.77311487792906</v>
       </c>
       <c r="C32">
-        <v>-4351.923343589815</v>
+        <v>1101.004447491651</v>
       </c>
       <c r="D32">
-        <v>-4328.6115415286831</v>
+        <v>1238.8286936464619</v>
       </c>
       <c r="E32">
-        <v>-4305.6290600556977</v>
+        <v>1322.3888447287129</v>
       </c>
       <c r="F32">
-        <v>-4193.3978442687267</v>
+        <v>1883.8385334995751</v>
       </c>
       <c r="G32">
-        <v>-4210.8107363291383</v>
+        <v>1855.6617688774099</v>
       </c>
       <c r="H32">
-        <v>-4308.5036193194101</v>
+        <v>1303.0769052034659</v>
       </c>
       <c r="I32">
-        <v>-4171.9628318662863</v>
+        <v>2016.412609139928</v>
       </c>
       <c r="J32">
-        <v>-4161.0997966979867</v>
+        <v>1914.0150825348651</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1427,31 +1427,31 @@
         <v>686</v>
       </c>
       <c r="B33">
-        <v>-396.42857878591678</v>
+        <v>666.20579187227145</v>
       </c>
       <c r="C33">
-        <v>-182.9920550079492</v>
+        <v>1021.679998663968</v>
       </c>
       <c r="D33">
-        <v>-139.7662885013967</v>
+        <v>1088.340420480429</v>
       </c>
       <c r="E33">
-        <v>-73.309447918494868</v>
+        <v>1198.08014945932</v>
       </c>
       <c r="F33">
-        <v>268.06738658680911</v>
+        <v>1940.9553599040801</v>
       </c>
       <c r="G33">
-        <v>448.94287312932647</v>
+        <v>2275.8353004018131</v>
       </c>
       <c r="H33">
-        <v>18.088834712623289</v>
+        <v>1379.154766229598</v>
       </c>
       <c r="I33">
-        <v>267.07393561004773</v>
+        <v>1932.440399817375</v>
       </c>
       <c r="J33">
-        <v>293.22346113962789</v>
+        <v>1997.3078131711479</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1459,31 +1459,31 @@
         <v>172</v>
       </c>
       <c r="B34">
-        <v>-941.73390784233675</v>
+        <v>633.08258433722244</v>
       </c>
       <c r="C34">
-        <v>-716.70697015694395</v>
+        <v>1101.2530108996591</v>
       </c>
       <c r="D34">
-        <v>-699.42944569264432</v>
+        <v>1128.8662754372899</v>
       </c>
       <c r="E34">
-        <v>-651.37061147807344</v>
+        <v>1222.6904398161821</v>
       </c>
       <c r="F34">
-        <v>-406.94059896100788</v>
+        <v>1788.698702358691</v>
       </c>
       <c r="G34">
-        <v>-272.91788874773522</v>
+        <v>2107.4079554766199</v>
       </c>
       <c r="H34">
-        <v>-559.91661090268315</v>
+        <v>1409.1920976767531</v>
       </c>
       <c r="I34">
-        <v>-382.61024818277758</v>
+        <v>1835.1809758414811</v>
       </c>
       <c r="J34">
-        <v>-228.16675450108849</v>
+        <v>2273.6279581561012</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1491,31 +1491,31 @@
         <v>259</v>
       </c>
       <c r="B35">
-        <v>-1587.641347000136</v>
+        <v>622.07781735991603</v>
       </c>
       <c r="C35">
-        <v>-1390.393177326642</v>
+        <v>1069.805471099023</v>
       </c>
       <c r="D35">
-        <v>-1376.253715332276</v>
+        <v>1103.839191906372</v>
       </c>
       <c r="E35">
-        <v>-1335.0705773077941</v>
+        <v>1209.6377609149499</v>
       </c>
       <c r="F35">
-        <v>-1123.991061524978</v>
+        <v>1826.620136184679</v>
       </c>
       <c r="G35">
-        <v>-1010.083526006017</v>
+        <v>2232.5016752437332</v>
       </c>
       <c r="H35">
-        <v>-1254.97734486425</v>
+        <v>1358.8553269832839</v>
       </c>
       <c r="I35">
-        <v>-1112.992376859675</v>
+        <v>1849.402552118838</v>
       </c>
       <c r="J35">
-        <v>-983.68084250898687</v>
+        <v>2227.2600681892</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1523,31 +1523,31 @@
         <v>216</v>
       </c>
       <c r="B36">
-        <v>-5371.0549816583671</v>
+        <v>640.397309961161</v>
       </c>
       <c r="C36">
-        <v>-5283.1051351581273</v>
+        <v>1033.703539333236</v>
       </c>
       <c r="D36">
-        <v>-5262.8565859537448</v>
+        <v>1183.5584514228069</v>
       </c>
       <c r="E36">
-        <v>-5234.3721439930296</v>
+        <v>1291.5201212009431</v>
       </c>
       <c r="F36">
-        <v>-5117.2724325006238</v>
+        <v>2040.472099237466</v>
       </c>
       <c r="G36">
-        <v>-5129.1802341191051</v>
+        <v>2108.1622816667891</v>
       </c>
       <c r="H36">
-        <v>-5185.1423323138752</v>
+        <v>1477.4506765337319</v>
       </c>
       <c r="I36">
-        <v>-5163.8322355418914</v>
+        <v>1637.181870729434</v>
       </c>
       <c r="J36">
-        <v>-5088.2739704314927</v>
+        <v>2087.5536499144268</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1555,31 +1555,31 @@
         <v>907</v>
       </c>
       <c r="B37">
-        <v>3027.9519820352348</v>
+        <v>344.98540588090049</v>
       </c>
       <c r="C37">
-        <v>7234.706247389794</v>
+        <v>857.6908463672238</v>
       </c>
       <c r="D37">
-        <v>10420.49094734491</v>
+        <v>945.76216057667023</v>
       </c>
       <c r="E37">
-        <v>14110.75710656051</v>
+        <v>1082.974895681815</v>
       </c>
       <c r="F37">
-        <v>35164.019334064367</v>
+        <v>2165.814132779899</v>
       </c>
       <c r="G37">
-        <v>28841.083679812338</v>
+        <v>2491.2011883611472</v>
       </c>
       <c r="H37">
-        <v>14112.28089300494</v>
+        <v>1288.3078441694449</v>
       </c>
       <c r="I37">
-        <v>23158.448431584919</v>
+        <v>1841.6723801497251</v>
       </c>
       <c r="J37">
-        <v>32251.592930627601</v>
+        <v>2481.5911460331722</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1587,31 +1587,31 @@
         <v>804</v>
       </c>
       <c r="B38">
-        <v>3371.5284239107541</v>
+        <v>477.69934341966041</v>
       </c>
       <c r="C38">
-        <v>18265.227321686139</v>
+        <v>966.23134861236247</v>
       </c>
       <c r="D38">
-        <v>12656.485237692061</v>
+        <v>991.70465014428794</v>
       </c>
       <c r="E38">
-        <v>21269.6257986126</v>
+        <v>1177.5690084065329</v>
       </c>
       <c r="F38">
-        <v>40341.775203145058</v>
+        <v>1754.8599069982879</v>
       </c>
       <c r="G38">
-        <v>60231.819132561977</v>
+        <v>2492.0648291897951</v>
       </c>
       <c r="H38">
-        <v>23889.65010418768</v>
+        <v>1374.9727822775751</v>
       </c>
       <c r="I38">
-        <v>45644.471426610049</v>
+        <v>1891.4281855844461</v>
       </c>
       <c r="J38">
-        <v>47010.917242496544</v>
+        <v>2373.4699453670551</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1619,31 +1619,31 @@
         <v>826</v>
       </c>
       <c r="B39">
-        <v>5569.921481263952</v>
+        <v>419.92313783396179</v>
       </c>
       <c r="C39">
-        <v>15342.154641266099</v>
+        <v>855.15348728960385</v>
       </c>
       <c r="D39">
-        <v>11691.557700737199</v>
+        <v>1045.987453913744</v>
       </c>
       <c r="E39">
-        <v>11969.66470310592</v>
+        <v>1199.500728041927</v>
       </c>
       <c r="F39">
-        <v>26406.066839005722</v>
+        <v>1939.0212657721629</v>
       </c>
       <c r="G39">
-        <v>31587.872949127111</v>
+        <v>2419.141674168332</v>
       </c>
       <c r="H39">
-        <v>16322.626048405449</v>
+        <v>1474.8343906452919</v>
       </c>
       <c r="I39">
-        <v>23561.909191853381</v>
+        <v>1858.9967938020809</v>
       </c>
       <c r="J39">
-        <v>35960.689822154811</v>
+        <v>2287.441068532893</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1651,31 +1651,31 @@
         <v>246</v>
       </c>
       <c r="B40">
-        <v>337.81080688452357</v>
+        <v>674.99958988107005</v>
       </c>
       <c r="C40">
-        <v>692.01122638255561</v>
+        <v>1135.503964302226</v>
       </c>
       <c r="D40">
-        <v>738.59971381816581</v>
+        <v>1189.7884354830189</v>
       </c>
       <c r="E40">
-        <v>829.59849362508953</v>
+        <v>1303.4378159929929</v>
       </c>
       <c r="F40">
-        <v>1280.071878045798</v>
+        <v>1882.623078490072</v>
       </c>
       <c r="G40">
-        <v>1426.70856062591</v>
+        <v>2077.7508655407391</v>
       </c>
       <c r="H40">
-        <v>1028.6077128772049</v>
+        <v>1540.3060185768379</v>
       </c>
       <c r="I40">
-        <v>1045.385187986923</v>
+        <v>1570.875681109183</v>
       </c>
       <c r="J40">
-        <v>1474.611732250338</v>
+        <v>2124.7145506238599</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1683,31 +1683,31 @@
         <v>261</v>
       </c>
       <c r="B41">
-        <v>628.1397643720403</v>
+        <v>660.74631103354091</v>
       </c>
       <c r="C41">
-        <v>1069.4866833037329</v>
+        <v>1112.9466580902781</v>
       </c>
       <c r="D41">
-        <v>1044.754673460453</v>
+        <v>1088.3357536023241</v>
       </c>
       <c r="E41">
-        <v>1180.349165498144</v>
+        <v>1225.957905457157</v>
       </c>
       <c r="F41">
-        <v>1755.651847774282</v>
+        <v>1831.2398172784619</v>
       </c>
       <c r="G41">
-        <v>2070.66390477818</v>
+        <v>2156.0638349811811</v>
       </c>
       <c r="H41">
-        <v>1308.67339297739</v>
+        <v>1359.355958504492</v>
       </c>
       <c r="I41">
-        <v>1791.747833748396</v>
+        <v>1866.7433458177891</v>
       </c>
       <c r="J41">
-        <v>2112.1930035308778</v>
+        <v>2198.610415234778</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1715,31 +1715,31 @@
         <v>264</v>
       </c>
       <c r="B42">
-        <v>204.39924766395421</v>
+        <v>675.54847512658057</v>
       </c>
       <c r="C42">
-        <v>530.59311017090852</v>
+        <v>1108.4773011481541</v>
       </c>
       <c r="D42">
-        <v>531.03891457812767</v>
+        <v>1109.2051489430839</v>
       </c>
       <c r="E42">
-        <v>603.1374368839397</v>
+        <v>1201.706807952552</v>
       </c>
       <c r="F42">
-        <v>1049.8747584925829</v>
+        <v>1904.6586680103369</v>
       </c>
       <c r="G42">
-        <v>1244.2513842880719</v>
+        <v>2166.3816436104539</v>
       </c>
       <c r="H42">
-        <v>726.39163978497402</v>
+        <v>1374.5815828996069</v>
       </c>
       <c r="I42">
-        <v>1071.807227903716</v>
+        <v>1927.5425229673581</v>
       </c>
       <c r="J42">
-        <v>1143.909271298369</v>
+        <v>2031.8978493418711</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1747,31 +1747,31 @@
         <v>886</v>
       </c>
       <c r="B43">
-        <v>459.47687284321989</v>
+        <v>689.23801442125693</v>
       </c>
       <c r="C43">
-        <v>832.7217789675002</v>
+        <v>1127.119872786765</v>
       </c>
       <c r="D43">
-        <v>814.76137121202305</v>
+        <v>1106.937082068376</v>
       </c>
       <c r="E43">
-        <v>922.64420138421576</v>
+        <v>1229.438655941249</v>
       </c>
       <c r="F43">
-        <v>1355.860835168246</v>
+        <v>1785.0432359184531</v>
       </c>
       <c r="G43">
-        <v>1698.75331943627</v>
+        <v>2201.7671428129879</v>
       </c>
       <c r="H43">
-        <v>1063.994330449854</v>
+        <v>1398.642741505872</v>
       </c>
       <c r="I43">
-        <v>1405.182085648499</v>
+        <v>1840.953806226607</v>
       </c>
       <c r="J43">
-        <v>1630.3867084511669</v>
+        <v>2120.8594483184311</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1779,31 +1779,31 @@
         <v>569</v>
       </c>
       <c r="B44">
-        <v>-886.72783352006968</v>
+        <v>712.66681461759617</v>
       </c>
       <c r="C44">
-        <v>-701.00776152228741</v>
+        <v>1082.691644347087</v>
       </c>
       <c r="D44">
-        <v>-619.20076306380849</v>
+        <v>1218.930033840672</v>
       </c>
       <c r="E44">
-        <v>-583.87441824045857</v>
+        <v>1293.1246104436759</v>
       </c>
       <c r="F44">
-        <v>-338.39030829477241</v>
+        <v>1845.9074462334131</v>
       </c>
       <c r="G44">
-        <v>-218.26587530091291</v>
+        <v>2134.7918651561931</v>
       </c>
       <c r="H44">
-        <v>-541.14321063756961</v>
+        <v>1370.3136846409579</v>
       </c>
       <c r="I44">
-        <v>-419.86458896460852</v>
+        <v>1623.1320518344901</v>
       </c>
       <c r="J44">
-        <v>-206.29151923890129</v>
+        <v>2218.4418488859169</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1811,31 +1811,31 @@
         <v>897</v>
       </c>
       <c r="B45">
-        <v>-4724.8910727943348</v>
+        <v>626.71385467763776</v>
       </c>
       <c r="C45">
-        <v>-4609.0158075566414</v>
+        <v>1127.993968349075</v>
       </c>
       <c r="D45">
-        <v>-4610.2385855702687</v>
+        <v>1104.956092810784</v>
       </c>
       <c r="E45">
-        <v>-4575.9627178951314</v>
+        <v>1241.3205247202029</v>
       </c>
       <c r="F45">
-        <v>-4454.3033384045793</v>
+        <v>1945.97687223056</v>
       </c>
       <c r="G45">
-        <v>-4403.0862026729674</v>
+        <v>2190.7530240999581</v>
       </c>
       <c r="H45">
-        <v>-4550.0314708347241</v>
+        <v>1346.9833160081309</v>
       </c>
       <c r="I45">
-        <v>-4464.2350245676234</v>
+        <v>1876.693676575647</v>
       </c>
       <c r="J45">
-        <v>-4458.0491773667954</v>
+        <v>2038.6086705279999</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1843,31 +1843,31 @@
         <v>837</v>
       </c>
       <c r="B46">
-        <v>12451.930318884421</v>
+        <v>478.08444825372112</v>
       </c>
       <c r="C46">
-        <v>18804.15879427332</v>
+        <v>967.07422888309065</v>
       </c>
       <c r="D46">
-        <v>22433.679403406401</v>
+        <v>988.06025261778291</v>
       </c>
       <c r="E46">
-        <v>32200.085876046021</v>
+        <v>1179.2529816116139</v>
       </c>
       <c r="F46">
-        <v>33406.896544916111</v>
+        <v>1761.381953434274</v>
       </c>
       <c r="G46">
-        <v>57434.886610439302</v>
+        <v>2475.1711521195571</v>
       </c>
       <c r="H46">
-        <v>24466.262592539821</v>
+        <v>1375.1229658384079</v>
       </c>
       <c r="I46">
-        <v>42945.627301056244</v>
+        <v>1904.7690514431081</v>
       </c>
       <c r="J46">
-        <v>57426.323439069813</v>
+        <v>2371.082965798445</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1875,31 +1875,31 @@
         <v>391</v>
       </c>
       <c r="B47">
-        <v>-4794.6149076036281</v>
+        <v>594.02743765389346</v>
       </c>
       <c r="C47">
-        <v>-4682.0340313084662</v>
+        <v>1091.5397027664169</v>
       </c>
       <c r="D47">
-        <v>-4682.4394055752346</v>
+        <v>1048.9581264907069</v>
       </c>
       <c r="E47">
-        <v>-4657.5268897960268</v>
+        <v>1185.1297538143569</v>
       </c>
       <c r="F47">
-        <v>-4537.6964615601983</v>
+        <v>1897.5991242725479</v>
       </c>
       <c r="G47">
-        <v>-4479.8447289721871</v>
+        <v>2221.0849166839389</v>
       </c>
       <c r="H47">
-        <v>-4616.493008927393</v>
+        <v>1332.5981781836449</v>
       </c>
       <c r="I47">
-        <v>-4543.3676592417551</v>
+        <v>1813.3688405268849</v>
       </c>
       <c r="J47">
-        <v>-4506.4340314863184</v>
+        <v>2315.6939196076119</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1907,31 +1907,31 @@
         <v>872</v>
       </c>
       <c r="B48">
-        <v>461.82530299123471</v>
+        <v>697.09564904798094</v>
       </c>
       <c r="C48">
-        <v>818.63783677689923</v>
+        <v>1117.341538179197</v>
       </c>
       <c r="D48">
-        <v>844.90270162897946</v>
+        <v>1146.214434396263</v>
       </c>
       <c r="E48">
-        <v>931.68174021803384</v>
+        <v>1251.390843889395</v>
       </c>
       <c r="F48">
-        <v>1467.326916503265</v>
+        <v>1895.1062905800341</v>
       </c>
       <c r="G48">
-        <v>1675.182889400593</v>
+        <v>2136.3202082309899</v>
       </c>
       <c r="H48">
-        <v>1171.770812917187</v>
+        <v>1533.5819427749041</v>
       </c>
       <c r="I48">
-        <v>1344.5129963481761</v>
+        <v>1754.7831757373599</v>
       </c>
       <c r="J48">
-        <v>1534.725368901552</v>
+        <v>1968.165917163871</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1939,31 +1939,31 @@
         <v>156</v>
       </c>
       <c r="B49">
-        <v>-445.70254057820512</v>
+        <v>589.46938692650542</v>
       </c>
       <c r="C49">
-        <v>-156.88823246436939</v>
+        <v>1097.4035492584089</v>
       </c>
       <c r="D49">
-        <v>-152.67276477878741</v>
+        <v>1104.433140703735</v>
       </c>
       <c r="E49">
-        <v>-100.5204670321334</v>
+        <v>1199.166296633849</v>
       </c>
       <c r="F49">
-        <v>202.2702674465487</v>
+        <v>1798.062192303717</v>
       </c>
       <c r="G49">
-        <v>396.08774084526499</v>
+        <v>2175.5270676392311</v>
       </c>
       <c r="H49">
-        <v>52.802676293856109</v>
+        <v>1451.9054117590049</v>
       </c>
       <c r="I49">
-        <v>252.73630343957811</v>
+        <v>1891.886875664037</v>
       </c>
       <c r="J49">
-        <v>422.33569419268969</v>
+        <v>2192.1460791115069</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1971,31 +1971,31 @@
         <v>379</v>
       </c>
       <c r="B50">
-        <v>543.19289460142409</v>
+        <v>616.88406584647066</v>
       </c>
       <c r="C50">
-        <v>922.87649685293741</v>
+        <v>1021.202325609367</v>
       </c>
       <c r="D50">
-        <v>988.28476485706938</v>
+        <v>1087.778907970385</v>
       </c>
       <c r="E50">
-        <v>1127.826615646263</v>
+        <v>1238.092381909026</v>
       </c>
       <c r="F50">
-        <v>1669.9605959166299</v>
+        <v>1836.2510337089479</v>
       </c>
       <c r="G50">
-        <v>1999.830749791342</v>
+        <v>2190.1754909644201</v>
       </c>
       <c r="H50">
-        <v>1246.9194562779719</v>
+        <v>1361.9635740771109</v>
       </c>
       <c r="I50">
-        <v>1692.301044082973</v>
+        <v>1862.805954573819</v>
       </c>
       <c r="J50">
-        <v>2090.8149655152538</v>
+        <v>2284.846265340454</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2003,31 +2003,31 @@
         <v>252</v>
       </c>
       <c r="B51">
-        <v>-3170.4949682124161</v>
+        <v>630.82982769784735</v>
       </c>
       <c r="C51">
-        <v>-3029.140191031679</v>
+        <v>1082.718736865251</v>
       </c>
       <c r="D51">
-        <v>-3028.0300691056118</v>
+        <v>1085.304139658524</v>
       </c>
       <c r="E51">
-        <v>-2987.7693075832899</v>
+        <v>1204.7006122217319</v>
       </c>
       <c r="F51">
-        <v>-2819.7491346257139</v>
+        <v>1937.8434395730751</v>
       </c>
       <c r="G51">
-        <v>-2752.284800516753</v>
+        <v>2192.0523877018122</v>
       </c>
       <c r="H51">
-        <v>-2930.5004866893378</v>
+        <v>1399.9376452167701</v>
       </c>
       <c r="I51">
-        <v>-2824.6405366556351</v>
+        <v>1891.087912718614</v>
       </c>
       <c r="J51">
-        <v>-2800.762712411165</v>
+        <v>2075.5252983463752</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2035,31 +2035,31 @@
         <v>749</v>
       </c>
       <c r="B52">
-        <v>-1932.4119857606011</v>
+        <v>631.98239673296757</v>
       </c>
       <c r="C52">
-        <v>-1735.506909298854</v>
+        <v>1084.879665921844</v>
       </c>
       <c r="D52">
-        <v>-1739.5468739328089</v>
+        <v>1102.9967691233101</v>
       </c>
       <c r="E52">
-        <v>-1702.545925914492</v>
+        <v>1190.1184976524801</v>
       </c>
       <c r="F52">
-        <v>-1494.921323435733</v>
+        <v>1917.2771103602231</v>
       </c>
       <c r="G52">
-        <v>-1417.760132291186</v>
+        <v>2249.5424132873168</v>
       </c>
       <c r="H52">
-        <v>-1667.3906242629389</v>
+        <v>1259.9401781149361</v>
       </c>
       <c r="I52">
-        <v>-1509.5457722580229</v>
+        <v>1826.0550277056759</v>
       </c>
       <c r="J52">
-        <v>-1382.860619964958</v>
+        <v>2237.207941101246</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2067,31 +2067,31 @@
         <v>195</v>
       </c>
       <c r="B53">
-        <v>589.02932107428319</v>
+        <v>741.26581865246192</v>
       </c>
       <c r="C53">
-        <v>947.6589831545449</v>
+        <v>1141.0479856928559</v>
       </c>
       <c r="D53">
-        <v>1005.429560341184</v>
+        <v>1202.2652065261991</v>
       </c>
       <c r="E53">
-        <v>1070.93146418537</v>
+        <v>1277.244202305179</v>
       </c>
       <c r="F53">
-        <v>1505.1191372130279</v>
+        <v>1760.847843687103</v>
       </c>
       <c r="G53">
-        <v>1789.370890213728</v>
+        <v>2080.5950408830772</v>
       </c>
       <c r="H53">
-        <v>1253.55073678497</v>
+        <v>1473.7447553611371</v>
       </c>
       <c r="I53">
-        <v>1472.134384717252</v>
+        <v>1727.7961487032489</v>
       </c>
       <c r="J53">
-        <v>1804.4799115076239</v>
+        <v>2095.1929981887411</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2099,31 +2099,31 @@
         <v>257</v>
       </c>
       <c r="B54">
-        <v>2952.685816858685</v>
+        <v>563.44692064656704</v>
       </c>
       <c r="C54">
-        <v>10333.81755084866</v>
+        <v>854.41724750113622</v>
       </c>
       <c r="D54">
-        <v>12595.71049119071</v>
+        <v>1115.837741063538</v>
       </c>
       <c r="E54">
-        <v>18281.05767455048</v>
+        <v>1212.702957123367</v>
       </c>
       <c r="F54">
-        <v>34116.30408565898</v>
+        <v>2109.1555258760141</v>
       </c>
       <c r="G54">
-        <v>36687.182714634713</v>
+        <v>2529.838574015761</v>
       </c>
       <c r="H54">
-        <v>26855.759079344341</v>
+        <v>1318.7916483793481</v>
       </c>
       <c r="I54">
-        <v>29964.013755236469</v>
+        <v>1835.535984071661</v>
       </c>
       <c r="J54">
-        <v>8236.8306849142791</v>
+        <v>1960.2734013226079</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2131,31 +2131,31 @@
         <v>238</v>
       </c>
       <c r="B55">
-        <v>-1578.6112009491951</v>
+        <v>650.45773901025802</v>
       </c>
       <c r="C55">
-        <v>-1390.285175533101</v>
+        <v>1077.6995600781181</v>
       </c>
       <c r="D55">
-        <v>-1384.431883945005</v>
+        <v>1100.9096895276341</v>
       </c>
       <c r="E55">
-        <v>-1340.2831760903071</v>
+        <v>1203.6334519824129</v>
       </c>
       <c r="F55">
-        <v>-1134.201047771526</v>
+        <v>1746.7258355525021</v>
       </c>
       <c r="G55">
-        <v>-986.25532383569748</v>
+        <v>2290.788014645344</v>
       </c>
       <c r="H55">
-        <v>-1188.169253363639</v>
+        <v>1545.2523271665409</v>
       </c>
       <c r="I55">
-        <v>-1141.72465498323</v>
+        <v>1723.3805730206541</v>
       </c>
       <c r="J55">
-        <v>-992.29925851828045</v>
+        <v>2161.1528090165339</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2163,31 +2163,31 @@
         <v>654</v>
       </c>
       <c r="B56">
-        <v>-183.92024165956011</v>
+        <v>659.23401118597201</v>
       </c>
       <c r="C56">
-        <v>66.172014159528018</v>
+        <v>1043.009244547407</v>
       </c>
       <c r="D56">
-        <v>77.409296665852736</v>
+        <v>1057.3556930176269</v>
       </c>
       <c r="E56">
-        <v>170.43805997214221</v>
+        <v>1199.7742802124069</v>
       </c>
       <c r="F56">
-        <v>491.71087147893371</v>
+        <v>1845.4386309340659</v>
       </c>
       <c r="G56">
-        <v>710.75597590431835</v>
+        <v>2244.4539221907962</v>
       </c>
       <c r="H56">
-        <v>258.97944571093558</v>
+        <v>1348.650492406596</v>
       </c>
       <c r="I56">
-        <v>503.22322915746747</v>
+        <v>1852.189914840058</v>
       </c>
       <c r="J56">
-        <v>711.53903237732993</v>
+        <v>2249.8938106650712</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2195,31 +2195,31 @@
         <v>658</v>
       </c>
       <c r="B57">
-        <v>-3136.5322898288191</v>
+        <v>657.43671923573436</v>
       </c>
       <c r="C57">
-        <v>-2997.1436413707661</v>
+        <v>1094.903134642215</v>
       </c>
       <c r="D57">
-        <v>-2996.4450292010042</v>
+        <v>1119.7572204859921</v>
       </c>
       <c r="E57">
-        <v>-2938.5259314370978</v>
+        <v>1291.294087313189</v>
       </c>
       <c r="F57">
-        <v>-2807.936294793471</v>
+        <v>1831.4340842286799</v>
       </c>
       <c r="G57">
-        <v>-2765.683151630014</v>
+        <v>2077.6529625947701</v>
       </c>
       <c r="H57">
-        <v>-2895.093301375844</v>
+        <v>1392.934450820369</v>
       </c>
       <c r="I57">
-        <v>-2796.9301978908388</v>
+        <v>1832.3528430804849</v>
       </c>
       <c r="J57">
-        <v>-2705.7671710560489</v>
+        <v>2202.2344975985702</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2227,31 +2227,31 @@
         <v>126</v>
       </c>
       <c r="B58">
-        <v>3624.159195354699</v>
+        <v>544.88404490479957</v>
       </c>
       <c r="C58">
-        <v>17673.185076376722</v>
+        <v>1048.1298793896999</v>
       </c>
       <c r="D58">
-        <v>19147.91800510032</v>
+        <v>1089.363143767561</v>
       </c>
       <c r="E58">
-        <v>29562.913291513509</v>
+        <v>1258.10232389967</v>
       </c>
       <c r="F58">
-        <v>41262.037842609177</v>
+        <v>1841.4008001217881</v>
       </c>
       <c r="G58">
-        <v>52851.452269652582</v>
+        <v>2272.824868897208</v>
       </c>
       <c r="H58">
-        <v>30237.547343895571</v>
+        <v>1485.8934660881539</v>
       </c>
       <c r="I58">
-        <v>34749.57108258309</v>
+        <v>1834.634628941179</v>
       </c>
       <c r="J58">
-        <v>48967.815215265422</v>
+        <v>2124.7668439899421</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2259,31 +2259,31 @@
         <v>284</v>
       </c>
       <c r="B59">
-        <v>442.1770146255094</v>
+        <v>671.29998228823968</v>
       </c>
       <c r="C59">
-        <v>781.36281561585724</v>
+        <v>1064.790407657073</v>
       </c>
       <c r="D59">
-        <v>769.24779634978233</v>
+        <v>1047.699114205365</v>
       </c>
       <c r="E59">
-        <v>882.52509317694353</v>
+        <v>1181.944528346419</v>
       </c>
       <c r="F59">
-        <v>1467.6169154784679</v>
+        <v>1931.786767799977</v>
       </c>
       <c r="G59">
-        <v>1713.4437784890911</v>
+        <v>2219.9875963896961</v>
       </c>
       <c r="H59">
-        <v>1099.0095881380651</v>
+        <v>1440.5905179313911</v>
       </c>
       <c r="I59">
-        <v>1372.1696361657639</v>
+        <v>1816.1731857449261</v>
       </c>
       <c r="J59">
-        <v>1637.7528569753099</v>
+        <v>2125.72789963691</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2291,31 +2291,31 @@
         <v>151</v>
       </c>
       <c r="B60">
-        <v>688.47317572858265</v>
+        <v>722.979021419378</v>
       </c>
       <c r="C60">
-        <v>1086.651433650027</v>
+        <v>1130.781487694702</v>
       </c>
       <c r="D60">
-        <v>1091.6383881444219</v>
+        <v>1136.287265794221</v>
       </c>
       <c r="E60">
-        <v>1191.2613696544479</v>
+        <v>1237.3286800373789</v>
       </c>
       <c r="F60">
-        <v>1726.7375801927651</v>
+        <v>1798.6003835783999</v>
       </c>
       <c r="G60">
-        <v>1995.8691723311849</v>
+        <v>2073.828117656923</v>
       </c>
       <c r="H60">
-        <v>1357.49391555937</v>
+        <v>1410.0070344284909</v>
       </c>
       <c r="I60">
-        <v>1851.3426995751261</v>
+        <v>1925.121660369804</v>
       </c>
       <c r="J60">
-        <v>1987.0391791321169</v>
+        <v>2065.066349020698</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2323,31 +2323,31 @@
         <v>314</v>
       </c>
       <c r="B61">
-        <v>442.36539680014101</v>
+        <v>667.09293939805161</v>
       </c>
       <c r="C61">
-        <v>821.09565365388733</v>
+        <v>1108.662846305559</v>
       </c>
       <c r="D61">
-        <v>821.68179310135565</v>
+        <v>1107.6112675964871</v>
       </c>
       <c r="E61">
-        <v>916.51336324804049</v>
+        <v>1219.9186826599109</v>
       </c>
       <c r="F61">
-        <v>1405.6885803983671</v>
+        <v>1842.6510586295731</v>
       </c>
       <c r="G61">
-        <v>1638.8096533610919</v>
+        <v>2112.3560629953909</v>
       </c>
       <c r="H61">
-        <v>1085.7831233643969</v>
+        <v>1414.990554873478</v>
       </c>
       <c r="I61">
-        <v>1495.6275863470739</v>
+        <v>1950.1476094401789</v>
       </c>
       <c r="J61">
-        <v>1612.125546550717</v>
+        <v>2076.5689781013698</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2355,31 +2355,31 @@
         <v>611</v>
       </c>
       <c r="B62">
-        <v>461.61921292920732</v>
+        <v>691.62841164327699</v>
       </c>
       <c r="C62">
-        <v>838.05143436813773</v>
+        <v>1133.3025192915511</v>
       </c>
       <c r="D62">
-        <v>817.35756020064196</v>
+        <v>1110.096154171225</v>
       </c>
       <c r="E62">
-        <v>924.7306333889394</v>
+        <v>1232.0107230575929</v>
       </c>
       <c r="F62">
-        <v>1359.0154143158441</v>
+        <v>1787.4707774788001</v>
       </c>
       <c r="G62">
-        <v>1687.4638952487351</v>
+        <v>2186.1626375683582</v>
       </c>
       <c r="H62">
-        <v>1068.224286169687</v>
+        <v>1404.120629318305</v>
       </c>
       <c r="I62">
-        <v>1404.3667160988491</v>
+        <v>1838.165807877451</v>
       </c>
       <c r="J62">
-        <v>1629.5659626809061</v>
+        <v>2117.0423395934358</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2387,31 +2387,31 @@
         <v>770</v>
       </c>
       <c r="B63">
-        <v>-5446.1803676267664</v>
+        <v>574.30324148828663</v>
       </c>
       <c r="C63">
-        <v>-5346.126937706953</v>
+        <v>1020.148915829389</v>
       </c>
       <c r="D63">
-        <v>-5343.465691897537</v>
+        <v>1090.7885456283991</v>
       </c>
       <c r="E63">
-        <v>-5318.1278900611669</v>
+        <v>1194.217059447981</v>
       </c>
       <c r="F63">
-        <v>-5212.1290659093047</v>
+        <v>1904.3796807756919</v>
       </c>
       <c r="G63">
-        <v>-5198.4002044787121</v>
+        <v>2159.6561485835718</v>
       </c>
       <c r="H63">
-        <v>-5257.2904437782654</v>
+        <v>1455.197778803888</v>
       </c>
       <c r="I63">
-        <v>-5198.6362909157233</v>
+        <v>1987.147156205649</v>
       </c>
       <c r="J63">
-        <v>-5159.8631798783517</v>
+        <v>2114.161473237149</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2419,31 +2419,31 @@
         <v>328</v>
       </c>
       <c r="B64">
-        <v>26044.107861345459</v>
+        <v>566.64417216011611</v>
       </c>
       <c r="C64">
-        <v>10755.474600428181</v>
+        <v>1062.6050444026739</v>
       </c>
       <c r="D64">
-        <v>15178.098344172409</v>
+        <v>1093.3126980509469</v>
       </c>
       <c r="E64">
-        <v>16408.793912844802</v>
+        <v>1239.330309781634</v>
       </c>
       <c r="F64">
-        <v>12233.521726120651</v>
+        <v>1789.695176236042</v>
       </c>
       <c r="G64">
-        <v>17653.879508604768</v>
+        <v>2105.9487616442452</v>
       </c>
       <c r="H64">
-        <v>18459.072390769939</v>
+        <v>1456.249070059408</v>
       </c>
       <c r="I64">
-        <v>-26268.423831446391</v>
+        <v>2021.2058520632361</v>
       </c>
       <c r="J64">
-        <v>20905.11575008044</v>
+        <v>2165.0089156017002</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2451,31 +2451,31 @@
         <v>823</v>
       </c>
       <c r="B65">
-        <v>-6115.6181230998936</v>
+        <v>586.48794098718804</v>
       </c>
       <c r="C65">
-        <v>-6006.8908955388624</v>
+        <v>1110.7451225974339</v>
       </c>
       <c r="D65">
-        <v>-6033.4359250934094</v>
+        <v>1082.817677664232</v>
       </c>
       <c r="E65">
-        <v>-6005.4059871949166</v>
+        <v>1218.6825943585329</v>
       </c>
       <c r="F65">
-        <v>-5912.8087118325566</v>
+        <v>1831.0718393128641</v>
       </c>
       <c r="G65">
-        <v>-5904.4524469175813</v>
+        <v>2027.8194223185719</v>
       </c>
       <c r="H65">
-        <v>-5953.0198196161018</v>
+        <v>1411.8879997328479</v>
       </c>
       <c r="I65">
-        <v>-5887.066178166051</v>
+        <v>2078.6446611353608</v>
       </c>
       <c r="J65">
-        <v>-5857.745589724288</v>
+        <v>2151.84274189297</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2483,31 +2483,31 @@
         <v>6</v>
       </c>
       <c r="B66">
-        <v>1223.1984443131071</v>
+        <v>1299.9882975681501</v>
       </c>
       <c r="C66">
-        <v>1441.626622883055</v>
+        <v>1521.747062555175</v>
       </c>
       <c r="D66">
-        <v>1484.619082637292</v>
+        <v>1567.766718603305</v>
       </c>
       <c r="E66">
-        <v>1161.878203422443</v>
+        <v>1237.7613721081309</v>
       </c>
       <c r="F66">
-        <v>1357.1264074688131</v>
+        <v>1436.905550865557</v>
       </c>
       <c r="G66">
-        <v>1445.8127547560259</v>
+        <v>1526.8562707924891</v>
       </c>
       <c r="H66">
-        <v>1417.822694968341</v>
+        <v>1498.1871357159559</v>
       </c>
       <c r="I66">
-        <v>1579.9938604897491</v>
+        <v>1665.842719041412</v>
       </c>
       <c r="J66">
-        <v>1657.741477216865</v>
+        <v>1744.944872749825</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2515,31 +2515,31 @@
         <v>666</v>
       </c>
       <c r="B67">
-        <v>5635.2765254212836</v>
+        <v>420.65923121428102</v>
       </c>
       <c r="C67">
-        <v>23581.311816020931</v>
+        <v>855.17441038544234</v>
       </c>
       <c r="D67">
-        <v>11365.940721162749</v>
+        <v>1047.0701283118819</v>
       </c>
       <c r="E67">
-        <v>11934.807660301291</v>
+        <v>1197.962446158904</v>
       </c>
       <c r="F67">
-        <v>23591.252453575242</v>
+        <v>1937.4422610492049</v>
       </c>
       <c r="G67">
-        <v>31626.18633260742</v>
+        <v>2418.1722461686009</v>
       </c>
       <c r="H67">
-        <v>15741.030645545299</v>
+        <v>1474.705569090542</v>
       </c>
       <c r="I67">
-        <v>23349.725852992749</v>
+        <v>1861.7153377901941</v>
       </c>
       <c r="J67">
-        <v>36197.176880671163</v>
+        <v>2287.0983698309478</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2547,31 +2547,31 @@
         <v>967</v>
       </c>
       <c r="B68">
-        <v>-3673.0466348798868</v>
+        <v>605.79865056536187</v>
       </c>
       <c r="C68">
-        <v>-3526.3322164917031</v>
+        <v>1110.226460370061</v>
       </c>
       <c r="D68">
-        <v>-3538.809873226689</v>
+        <v>1102.129684623608</v>
       </c>
       <c r="E68">
-        <v>-3509.004301880695</v>
+        <v>1205.1489540950929</v>
       </c>
       <c r="F68">
-        <v>-3360.2374666878118</v>
+        <v>1924.3964509829609</v>
       </c>
       <c r="G68">
-        <v>-3324.8349895856782</v>
+        <v>2192.7855370634302</v>
       </c>
       <c r="H68">
-        <v>-3446.4212631443061</v>
+        <v>1385.1707339055749</v>
       </c>
       <c r="I68">
-        <v>-3366.873177853749</v>
+        <v>1805.9555804783311</v>
       </c>
       <c r="J68">
-        <v>-3287.0495544775899</v>
+        <v>2168.3879479155771</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2579,31 +2579,31 @@
         <v>485</v>
       </c>
       <c r="B69">
-        <v>675.26093791180972</v>
+        <v>683.96459141776688</v>
       </c>
       <c r="C69">
-        <v>1113.1219071722271</v>
+        <v>1125.2247803994269</v>
       </c>
       <c r="D69">
-        <v>1132.231325352381</v>
+        <v>1144.054657988248</v>
       </c>
       <c r="E69">
-        <v>1251.00400913723</v>
+        <v>1264.2196353046261</v>
       </c>
       <c r="F69">
-        <v>1717.786279342964</v>
+        <v>1733.9462963315591</v>
       </c>
       <c r="G69">
-        <v>2177.898055684072</v>
+        <v>2197.3882415432299</v>
       </c>
       <c r="H69">
-        <v>1478.518227851587</v>
+        <v>1492.356067143365</v>
       </c>
       <c r="I69">
-        <v>1710.3852238300699</v>
+        <v>1727.591542815213</v>
       </c>
       <c r="J69">
-        <v>2112.1384056959409</v>
+        <v>2131.2541870565692</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2611,31 +2611,31 @@
         <v>54</v>
       </c>
       <c r="B70">
-        <v>540.02846214390081</v>
+        <v>681.4779115464371</v>
       </c>
       <c r="C70">
-        <v>913.02925361191592</v>
+        <v>1090.9437344461589</v>
       </c>
       <c r="D70">
-        <v>905.45611155725635</v>
+        <v>1082.97580923893</v>
       </c>
       <c r="E70">
-        <v>1006.079639168953</v>
+        <v>1191.6662321061581</v>
       </c>
       <c r="F70">
-        <v>1507.5540598663549</v>
+        <v>1797.184436832179</v>
       </c>
       <c r="G70">
-        <v>1848.3079629493179</v>
+        <v>2184.2946478240792</v>
       </c>
       <c r="H70">
-        <v>1161.80236806415</v>
+        <v>1369.5130615115011</v>
       </c>
       <c r="I70">
-        <v>1576.007533244953</v>
+        <v>1871.217313594201</v>
       </c>
       <c r="J70">
-        <v>1891.3220828024021</v>
+        <v>2230.7268529003509</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2643,31 +2643,31 @@
         <v>155</v>
       </c>
       <c r="B71">
-        <v>384.69347992746708</v>
+        <v>732.11618686022962</v>
       </c>
       <c r="C71">
-        <v>705.93989430606973</v>
+        <v>1135.270740001378</v>
       </c>
       <c r="D71">
-        <v>760.42904530663884</v>
+        <v>1199.414539127911</v>
       </c>
       <c r="E71">
-        <v>811.78040567283608</v>
+        <v>1262.941898153269</v>
       </c>
       <c r="F71">
-        <v>1328.6372594104639</v>
+        <v>1924.2321755210389</v>
       </c>
       <c r="G71">
-        <v>1408.366415868966</v>
+        <v>2013.7449606133359</v>
       </c>
       <c r="H71">
-        <v>1018.740610178986</v>
+        <v>1531.2697080192911</v>
       </c>
       <c r="I71">
-        <v>1237.720800807879</v>
+        <v>1807.6800437636159</v>
       </c>
       <c r="J71">
-        <v>1302.376527044823</v>
+        <v>1893.329747939928</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2707,31 +2707,31 @@
         <v>208</v>
       </c>
       <c r="B73">
-        <v>306.87272122274322</v>
+        <v>642.36650406163665</v>
       </c>
       <c r="C73">
-        <v>687.93559363180816</v>
+        <v>1120.488604416845</v>
       </c>
       <c r="D73">
-        <v>662.96979166730705</v>
+        <v>1090.3088975843041</v>
       </c>
       <c r="E73">
-        <v>766.18609333269819</v>
+        <v>1219.9415557256141</v>
       </c>
       <c r="F73">
-        <v>1151.2082373797471</v>
+        <v>1745.200460676326</v>
       </c>
       <c r="G73">
-        <v>1412.3230211911971</v>
+        <v>2103.280861349268</v>
       </c>
       <c r="H73">
-        <v>923.16899636233359</v>
+        <v>1409.942160936725</v>
       </c>
       <c r="I73">
-        <v>1255.2271052500071</v>
+        <v>1889.8285918201871</v>
       </c>
       <c r="J73">
-        <v>1552.0493402133141</v>
+        <v>2278.64236342909</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2739,31 +2739,31 @@
         <v>733</v>
       </c>
       <c r="B74">
-        <v>621.48473418693652</v>
+        <v>701.57089671978952</v>
       </c>
       <c r="C74">
-        <v>1001.9698656341679</v>
+        <v>1104.155584290861</v>
       </c>
       <c r="D74">
-        <v>1007.4448382223291</v>
+        <v>1111.148979908495</v>
       </c>
       <c r="E74">
-        <v>1136.6929255680791</v>
+        <v>1245.7408054093969</v>
       </c>
       <c r="F74">
-        <v>1674.8062422583439</v>
+        <v>1837.7491538420361</v>
       </c>
       <c r="G74">
-        <v>1921.150910250589</v>
+        <v>2102.349589272163</v>
       </c>
       <c r="H74">
-        <v>1300.4319341787141</v>
+        <v>1423.3934431311829</v>
       </c>
       <c r="I74">
-        <v>1622.5976357352449</v>
+        <v>1777.6060345622709</v>
       </c>
       <c r="J74">
-        <v>2009.3744477585019</v>
+        <v>2196.285512863803</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2771,31 +2771,31 @@
         <v>817</v>
       </c>
       <c r="B75">
-        <v>-6966.2969989035864</v>
+        <v>547.9845896076389</v>
       </c>
       <c r="C75">
-        <v>-6868.7580124143642</v>
+        <v>1044.4603166350939</v>
       </c>
       <c r="D75">
-        <v>-6895.3939867056952</v>
+        <v>1038.339522197163</v>
       </c>
       <c r="E75">
-        <v>-6865.8215513839168</v>
+        <v>1181.2842135825181</v>
       </c>
       <c r="F75">
-        <v>-6781.4573460238607</v>
+        <v>1904.957515084408</v>
       </c>
       <c r="G75">
-        <v>-6779.8991793084588</v>
+        <v>2107.1501276590589</v>
       </c>
       <c r="H75">
-        <v>-6824.5563850582448</v>
+        <v>1396.698643888679</v>
       </c>
       <c r="I75">
-        <v>-6775.0090079049842</v>
+        <v>1928.707226659875</v>
       </c>
       <c r="J75">
-        <v>-6730.7639546446171</v>
+        <v>2350.4178446855708</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2803,31 +2803,31 @@
         <v>546</v>
       </c>
       <c r="B76">
-        <v>789.72903063420006</v>
+        <v>799.21027649995665</v>
       </c>
       <c r="C76">
-        <v>1150.106236715977</v>
+        <v>1161.874813257175</v>
       </c>
       <c r="D76">
-        <v>1211.784526429775</v>
+        <v>1223.5136857269631</v>
       </c>
       <c r="E76">
-        <v>1275.8614408907781</v>
+        <v>1288.561433600669</v>
       </c>
       <c r="F76">
-        <v>1759.676832253512</v>
+        <v>1774.8793871687019</v>
       </c>
       <c r="G76">
-        <v>2080.745012166989</v>
+        <v>2097.3645481906719</v>
       </c>
       <c r="H76">
-        <v>1486.392223329924</v>
+        <v>1499.4679283003279</v>
       </c>
       <c r="I76">
-        <v>1721.0135230125629</v>
+        <v>1736.587712624297</v>
       </c>
       <c r="J76">
-        <v>1903.191983812831</v>
+        <v>1918.5402146312381</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2835,31 +2835,31 @@
         <v>486</v>
       </c>
       <c r="B77">
-        <v>-3721.7077369172271</v>
+        <v>561.8977779850386</v>
       </c>
       <c r="C77">
-        <v>-3591.666941769422</v>
+        <v>1053.119000848098</v>
       </c>
       <c r="D77">
-        <v>-3578.267247689882</v>
+        <v>1072.8865984497911</v>
       </c>
       <c r="E77">
-        <v>-3554.9776443164478</v>
+        <v>1168.8045678384569</v>
       </c>
       <c r="F77">
-        <v>-3410.5582213127941</v>
+        <v>1886.513077500673</v>
       </c>
       <c r="G77">
-        <v>-3336.5464422538589</v>
+        <v>2203.917838508592</v>
       </c>
       <c r="H77">
-        <v>-3495.658962313546</v>
+        <v>1402.0045063509669</v>
       </c>
       <c r="I77">
-        <v>-3392.75518606694</v>
+        <v>1980.230837163429</v>
       </c>
       <c r="J77">
-        <v>-3373.286511446513</v>
+        <v>2170.6257953549548</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2867,31 +2867,31 @@
         <v>774</v>
       </c>
       <c r="B78">
-        <v>5214.2729093541066</v>
+        <v>478.37881811411552</v>
       </c>
       <c r="C78">
-        <v>12407.031165521201</v>
+        <v>994.76821957493758</v>
       </c>
       <c r="D78">
-        <v>15234.47274588923</v>
+        <v>1002.3988102240839</v>
       </c>
       <c r="E78">
-        <v>19009.652732408889</v>
+        <v>1098.836686303719</v>
       </c>
       <c r="F78">
-        <v>34043.126877919924</v>
+        <v>1956.1212211190491</v>
       </c>
       <c r="G78">
-        <v>38037.317682719797</v>
+        <v>2395.9121314315812</v>
       </c>
       <c r="H78">
-        <v>24441.970939258881</v>
+        <v>1327.501267396289</v>
       </c>
       <c r="I78">
-        <v>35735.139543836784</v>
+        <v>1896.5991837228651</v>
       </c>
       <c r="J78">
-        <v>68546.623554955804</v>
+        <v>2349.4836621133541</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2899,31 +2899,31 @@
         <v>682</v>
       </c>
       <c r="B79">
-        <v>-1575.125899129901</v>
+        <v>640.62188125349621</v>
       </c>
       <c r="C79">
-        <v>-1371.035147150284</v>
+        <v>1090.417803251031</v>
       </c>
       <c r="D79">
-        <v>-1383.555910650651</v>
+        <v>1086.15127365079</v>
       </c>
       <c r="E79">
-        <v>-1338.2917245102631</v>
+        <v>1183.8624496846769</v>
       </c>
       <c r="F79">
-        <v>-1125.625479134713</v>
+        <v>1812.9510287101921</v>
       </c>
       <c r="G79">
-        <v>-1059.340886253455</v>
+        <v>2053.5544083537538</v>
       </c>
       <c r="H79">
-        <v>-1251.8218410292509</v>
+        <v>1358.250687145545</v>
       </c>
       <c r="I79">
-        <v>-1080.734373061319</v>
+        <v>1925.5552136905681</v>
       </c>
       <c r="J79">
-        <v>-945.81160404200125</v>
+        <v>2348.6352542599452</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2931,31 +2931,31 @@
         <v>174</v>
       </c>
       <c r="B80">
-        <v>650.16055814186996</v>
+        <v>684.52773140830175</v>
       </c>
       <c r="C80">
-        <v>1089.0022338871411</v>
+        <v>1135.868668326131</v>
       </c>
       <c r="D80">
-        <v>1100.957742389508</v>
+        <v>1148.567716966505</v>
       </c>
       <c r="E80">
-        <v>1194.075418921391</v>
+        <v>1243.0027389617819</v>
       </c>
       <c r="F80">
-        <v>1691.3449268640011</v>
+        <v>1760.4074190049289</v>
       </c>
       <c r="G80">
-        <v>1960.8846788971821</v>
+        <v>2038.0997348705821</v>
       </c>
       <c r="H80">
-        <v>1421.871143437683</v>
+        <v>1479.7637968394331</v>
       </c>
       <c r="I80">
-        <v>1718.904470125103</v>
+        <v>1786.0604885008961</v>
       </c>
       <c r="J80">
-        <v>2139.7674381534121</v>
+        <v>2223.701705121438</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2963,31 +2963,31 @@
         <v>958</v>
       </c>
       <c r="B81">
-        <v>11203.931283499731</v>
+        <v>590.80515481867678</v>
       </c>
       <c r="C81">
-        <v>13705.9517060254</v>
+        <v>936.97614969555093</v>
       </c>
       <c r="D81">
-        <v>12111.09587818772</v>
+        <v>1114.968354944803</v>
       </c>
       <c r="E81">
-        <v>4652.1550132922293</v>
+        <v>1190.465644908739</v>
       </c>
       <c r="F81">
-        <v>44050.488953356638</v>
+        <v>2065.9520525445259</v>
       </c>
       <c r="G81">
-        <v>36171.723460585737</v>
+        <v>2311.5726920986322</v>
       </c>
       <c r="H81">
-        <v>16024.696215047959</v>
+        <v>1300.1685251818469</v>
       </c>
       <c r="I81">
-        <v>13229.34925199863</v>
+        <v>1760.8815885584529</v>
       </c>
       <c r="J81">
-        <v>47303.210566962851</v>
+        <v>2228.2098372487699</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2995,31 +2995,31 @@
         <v>112</v>
       </c>
       <c r="B82">
-        <v>-4792.3973855622626</v>
+        <v>591.24752275655635</v>
       </c>
       <c r="C82">
-        <v>-4681.0890855302632</v>
+        <v>1081.186899161939</v>
       </c>
       <c r="D82">
-        <v>-4682.6032292768296</v>
+        <v>1057.037042978925</v>
       </c>
       <c r="E82">
-        <v>-4648.5597088596387</v>
+        <v>1213.834051137309</v>
       </c>
       <c r="F82">
-        <v>-4544.8107197590061</v>
+        <v>1828.877818814942</v>
       </c>
       <c r="G82">
-        <v>-4475.6900670065934</v>
+        <v>2211.5869932680789</v>
       </c>
       <c r="H82">
-        <v>-4609.7104134592018</v>
+        <v>1377.7383020066891</v>
       </c>
       <c r="I82">
-        <v>-4535.9539645918212</v>
+        <v>1867.6426379470829</v>
       </c>
       <c r="J82">
-        <v>-4508.4221451615913</v>
+        <v>2270.8487319284791</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3027,31 +3027,31 @@
         <v>769</v>
       </c>
       <c r="B83">
-        <v>-657.59599920667426</v>
+        <v>658.76401260899161</v>
       </c>
       <c r="C83">
-        <v>-450.74777320716208</v>
+        <v>1026.814619834005</v>
       </c>
       <c r="D83">
-        <v>-437.81514537943548</v>
+        <v>1043.966691739917</v>
       </c>
       <c r="E83">
-        <v>-362.07336532844602</v>
+        <v>1182.3477529559909</v>
       </c>
       <c r="F83">
-        <v>-68.635414067471018</v>
+        <v>1901.978396395212</v>
       </c>
       <c r="G83">
-        <v>133.83428569770959</v>
+        <v>2353.2827707542542</v>
       </c>
       <c r="H83">
-        <v>-272.98844759512377</v>
+        <v>1369.325835991591</v>
       </c>
       <c r="I83">
-        <v>-42.876957353066132</v>
+        <v>1937.620795986531</v>
       </c>
       <c r="J83">
-        <v>-12.79602769839989</v>
+        <v>2025.8991237335049</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3059,31 +3059,31 @@
         <v>148</v>
       </c>
       <c r="B84">
-        <v>-685.79802024772073</v>
+        <v>615.52202797758105</v>
       </c>
       <c r="C84">
-        <v>-470.25577235819179</v>
+        <v>1010.945960916742</v>
       </c>
       <c r="D84">
-        <v>-399.98570264140761</v>
+        <v>1124.873946642696</v>
       </c>
       <c r="E84">
-        <v>-389.16068319228702</v>
+        <v>1165.793869185005</v>
       </c>
       <c r="F84">
-        <v>-46.072224092696267</v>
+        <v>1953.437313318296</v>
       </c>
       <c r="G84">
-        <v>66.948776288793056</v>
+        <v>2189.5118782487589</v>
       </c>
       <c r="H84">
-        <v>-249.40152007710321</v>
+        <v>1420.727172038693</v>
       </c>
       <c r="I84">
-        <v>-90.403890171060013</v>
+        <v>1845.6943324223189</v>
       </c>
       <c r="J84">
-        <v>80.473312442306423</v>
+        <v>2173.4934992499088</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3091,31 +3091,31 @@
         <v>664</v>
       </c>
       <c r="B85">
-        <v>-3641.3612855754432</v>
+        <v>689.13998983847853</v>
       </c>
       <c r="C85">
-        <v>-3551.7096666402958</v>
+        <v>962.39436837228425</v>
       </c>
       <c r="D85">
-        <v>-3515.015037370501</v>
+        <v>1113.028676313</v>
       </c>
       <c r="E85">
-        <v>-3481.773405304174</v>
+        <v>1228.763079469981</v>
       </c>
       <c r="F85">
-        <v>-3340.962582796476</v>
+        <v>1900.301423642409</v>
       </c>
       <c r="G85">
-        <v>-3322.79967240203</v>
+        <v>2136.4171083518409</v>
       </c>
       <c r="H85">
-        <v>-3432.9972079524759</v>
+        <v>1373.30405196066</v>
       </c>
       <c r="I85">
-        <v>-3347.1249996077431</v>
+        <v>1803.3710055865381</v>
       </c>
       <c r="J85">
-        <v>-3257.7531534274808</v>
+        <v>2293.2802964648081</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3123,31 +3123,31 @@
         <v>972</v>
       </c>
       <c r="B86">
-        <v>415.61562169607578</v>
+        <v>640.43977709517571</v>
       </c>
       <c r="C86">
-        <v>734.84122125766999</v>
+        <v>1013.205853583764</v>
       </c>
       <c r="D86">
-        <v>814.47230885718307</v>
+        <v>1100.4494912946441</v>
       </c>
       <c r="E86">
-        <v>894.26010833724308</v>
+        <v>1198.3279409364441</v>
       </c>
       <c r="F86">
-        <v>1381.9092801573081</v>
+        <v>1832.2835117385771</v>
       </c>
       <c r="G86">
-        <v>1682.384366936544</v>
+        <v>2203.3089902432721</v>
       </c>
       <c r="H86">
-        <v>1025.313264694387</v>
+        <v>1347.538461470599</v>
       </c>
       <c r="I86">
-        <v>1403.8522509210261</v>
+        <v>1861.813238413112</v>
       </c>
       <c r="J86">
-        <v>1771.536926777932</v>
+        <v>2302.6327352244102</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3155,31 +3155,31 @@
         <v>5</v>
       </c>
       <c r="B87">
-        <v>-5431.0244684722902</v>
+        <v>566.31422769830829</v>
       </c>
       <c r="C87">
-        <v>-5331.3722044452943</v>
+        <v>1085.727825939455</v>
       </c>
       <c r="D87">
-        <v>-5321.5771281359284</v>
+        <v>1109.5411418521489</v>
       </c>
       <c r="E87">
-        <v>-5296.5524105469867</v>
+        <v>1242.37783715923</v>
       </c>
       <c r="F87">
-        <v>-5192.5066911113172</v>
+        <v>1883.93467420518</v>
       </c>
       <c r="G87">
-        <v>-5139.6116824653673</v>
+        <v>2196.6666064240139</v>
       </c>
       <c r="H87">
-        <v>-5242.1831888544266</v>
+        <v>1503.6207816495589</v>
       </c>
       <c r="I87">
-        <v>-5212.3621449893863</v>
+        <v>1702.1342941260141</v>
       </c>
       <c r="J87">
-        <v>-5173.5908563216244</v>
+        <v>2209.6826109460922</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3187,31 +3187,31 @@
         <v>454</v>
       </c>
       <c r="B88">
-        <v>-966.48763961156942</v>
+        <v>609.52149441083736</v>
       </c>
       <c r="C88">
-        <v>-734.57938731059244</v>
+        <v>1081.9501937818709</v>
       </c>
       <c r="D88">
-        <v>-743.47351501421849</v>
+        <v>1067.093178403936</v>
       </c>
       <c r="E88">
-        <v>-672.68236191281153</v>
+        <v>1199.435103511564</v>
       </c>
       <c r="F88">
-        <v>-427.49498072317982</v>
+        <v>1822.1404097000141</v>
       </c>
       <c r="G88">
-        <v>-276.42796421314699</v>
+        <v>2204.8526360090082</v>
       </c>
       <c r="H88">
-        <v>-590.565651584335</v>
+        <v>1371.5742331439019</v>
       </c>
       <c r="I88">
-        <v>-414.57138197895358</v>
+        <v>1832.567735127282</v>
       </c>
       <c r="J88">
-        <v>-249.86575079158061</v>
+        <v>2310.8650159115818</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3219,31 +3219,31 @@
         <v>455</v>
       </c>
       <c r="B89">
-        <v>-6820.0414683271283</v>
+        <v>563.46597886609425</v>
       </c>
       <c r="C89">
-        <v>-5569.0615336233586</v>
+        <v>1017.521895215276</v>
       </c>
       <c r="D89">
-        <v>-1641.8011268061489</v>
+        <v>1052.993129578947</v>
       </c>
       <c r="E89">
-        <v>-3915.1886400282128</v>
+        <v>1164.8139824019729</v>
       </c>
       <c r="F89">
-        <v>-4255.4058824862468</v>
+        <v>1833.741540040998</v>
       </c>
       <c r="G89">
-        <v>-7183.8403896261107</v>
+        <v>2257.1857561411348</v>
       </c>
       <c r="H89">
-        <v>-6862.8363061073014</v>
+        <v>1354.109421386994</v>
       </c>
       <c r="I89">
-        <v>-5972.9110993655331</v>
+        <v>1885.424052413766</v>
       </c>
       <c r="J89">
-        <v>-5057.8081958927751</v>
+        <v>2370.7442439548172</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3251,31 +3251,31 @@
         <v>80</v>
       </c>
       <c r="B90">
-        <v>-3240.088384132177</v>
+        <v>564.85421375921476</v>
       </c>
       <c r="C90">
-        <v>-3098.4736668231508</v>
+        <v>1052.3382969418581</v>
       </c>
       <c r="D90">
-        <v>-3083.7008613254411</v>
+        <v>1077.666223893357</v>
       </c>
       <c r="E90">
-        <v>-3060.6881924485269</v>
+        <v>1170.677709899282</v>
       </c>
       <c r="F90">
-        <v>-2907.597376944515</v>
+        <v>1841.5613528253309</v>
       </c>
       <c r="G90">
-        <v>-2810.491033544934</v>
+        <v>2308.1719414875279</v>
       </c>
       <c r="H90">
-        <v>-3009.3184758819698</v>
+        <v>1332.20914090768</v>
       </c>
       <c r="I90">
-        <v>-2900.8870234432979</v>
+        <v>1857.7564234472291</v>
       </c>
       <c r="J90">
-        <v>-2848.4653118183651</v>
+        <v>2294.764696838522</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3283,31 +3283,31 @@
         <v>429</v>
       </c>
       <c r="B91">
-        <v>-2332.5908650991291</v>
+        <v>619.97042872942689</v>
       </c>
       <c r="C91">
-        <v>-2174.3218378918909</v>
+        <v>1057.6304659233069</v>
       </c>
       <c r="D91">
-        <v>-2172.5925399552812</v>
+        <v>1054.4436268605909</v>
       </c>
       <c r="E91">
-        <v>-2121.497620459274</v>
+        <v>1196.2887894658279</v>
       </c>
       <c r="F91">
-        <v>-1934.9172496156641</v>
+        <v>1891.622868456642</v>
       </c>
       <c r="G91">
-        <v>-1840.693709245767</v>
+        <v>2199.7457805938088</v>
       </c>
       <c r="H91">
-        <v>-2062.9136451420209</v>
+        <v>1369.0354150051251</v>
       </c>
       <c r="I91">
-        <v>-1912.1519688935371</v>
+        <v>1963.15813466499</v>
       </c>
       <c r="J91">
-        <v>-1879.184026533725</v>
+        <v>2148.1044903002821</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3315,31 +3315,31 @@
         <v>16</v>
       </c>
       <c r="B92">
-        <v>1402.162739109835</v>
+        <v>465.84057450356357</v>
       </c>
       <c r="C92">
-        <v>11867.58823443606</v>
+        <v>1052.299381533127</v>
       </c>
       <c r="D92">
-        <v>23857.811477732201</v>
+        <v>1007.639976486191</v>
       </c>
       <c r="E92">
-        <v>23402.82970382836</v>
+        <v>1127.8444668725131</v>
       </c>
       <c r="F92">
-        <v>36475.39660761493</v>
+        <v>1921.771996550468</v>
       </c>
       <c r="G92">
-        <v>57491.035480476428</v>
+        <v>2362.3012376771721</v>
       </c>
       <c r="H92">
-        <v>31313.745245372371</v>
+        <v>1349.938128370773</v>
       </c>
       <c r="I92">
-        <v>41133.813612120503</v>
+        <v>1897.464410663106</v>
       </c>
       <c r="J92">
-        <v>52586.260701414911</v>
+        <v>2314.8998273430861</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3347,31 +3347,31 @@
         <v>46</v>
       </c>
       <c r="B93">
-        <v>-972.22773399320954</v>
+        <v>614.05527921996918</v>
       </c>
       <c r="C93">
-        <v>-750.43246113032751</v>
+        <v>1047.8479078768869</v>
       </c>
       <c r="D93">
-        <v>-732.02817289625978</v>
+        <v>1085.432880287884</v>
       </c>
       <c r="E93">
-        <v>-685.70287622785577</v>
+        <v>1186.0748215772401</v>
       </c>
       <c r="F93">
-        <v>-471.03187879236759</v>
+        <v>1671.384919489305</v>
       </c>
       <c r="G93">
-        <v>-283.67399397523212</v>
+        <v>2264.4052665682261</v>
       </c>
       <c r="H93">
-        <v>-569.26813340814147</v>
+        <v>1398.438904069604</v>
       </c>
       <c r="I93">
-        <v>-394.08100013851282</v>
+        <v>1904.8308548382049</v>
       </c>
       <c r="J93">
-        <v>-236.27239192902979</v>
+        <v>2327.5291660726762</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3379,31 +3379,31 @@
         <v>198</v>
       </c>
       <c r="B94">
-        <v>-2714.951205233147</v>
+        <v>659.67676381599142</v>
       </c>
       <c r="C94">
-        <v>-2569.9926287456829</v>
+        <v>1078.586249504081</v>
       </c>
       <c r="D94">
-        <v>-2550.544286628342</v>
+        <v>1146.501234397213</v>
       </c>
       <c r="E94">
-        <v>-2516.6025526518879</v>
+        <v>1249.4563704558591</v>
       </c>
       <c r="F94">
-        <v>-2342.165741496392</v>
+        <v>1844.6758899405429</v>
       </c>
       <c r="G94">
-        <v>-2285.3805049156858</v>
+        <v>2170.1458928652219</v>
       </c>
       <c r="H94">
-        <v>-2422.6474471804158</v>
+        <v>1507.2270934972089</v>
       </c>
       <c r="I94">
-        <v>-2345.449802930043</v>
+        <v>1824.955630388705</v>
       </c>
       <c r="J94">
-        <v>-2275.681015118485</v>
+        <v>2018.774875135181</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3411,31 +3411,31 @@
         <v>549</v>
       </c>
       <c r="B95">
-        <v>-4782.0243194407722</v>
+        <v>598.90535034977381</v>
       </c>
       <c r="C95">
-        <v>-4669.3546183488252</v>
+        <v>1060.623124916998</v>
       </c>
       <c r="D95">
-        <v>-4666.3358436968629</v>
+        <v>1114.542517035625</v>
       </c>
       <c r="E95">
-        <v>-4638.3585627612138</v>
+        <v>1225.137653900631</v>
       </c>
       <c r="F95">
-        <v>-4526.5262784614579</v>
+        <v>1873.400543690864</v>
       </c>
       <c r="G95">
-        <v>-4512.1572709285874</v>
+        <v>2055.8347155848792</v>
       </c>
       <c r="H95">
-        <v>-4587.596148354618</v>
+        <v>1407.20107835464</v>
       </c>
       <c r="I95">
-        <v>-4496.1433383199346</v>
+        <v>2061.9144986111519</v>
       </c>
       <c r="J95">
-        <v>-4467.4393869783944</v>
+        <v>2102.4405175554361</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3443,31 +3443,31 @@
         <v>313</v>
       </c>
       <c r="B96">
-        <v>-369.67414262256472</v>
+        <v>686.20274553526667</v>
       </c>
       <c r="C96">
-        <v>-106.9840653834861</v>
+        <v>1148.652837165929</v>
       </c>
       <c r="D96">
-        <v>-104.96647126910359</v>
+        <v>1151.550638130665</v>
       </c>
       <c r="E96">
-        <v>-17.582601692882221</v>
+        <v>1290.11582744313</v>
       </c>
       <c r="F96">
-        <v>275.45696364691543</v>
+        <v>1813.4316560491379</v>
       </c>
       <c r="G96">
-        <v>430.72854059138132</v>
+        <v>2078.1194779706138</v>
       </c>
       <c r="H96">
-        <v>116.30996738487509</v>
+        <v>1520.3972463628911</v>
       </c>
       <c r="I96">
-        <v>257.5298063354445</v>
+        <v>1767.592748643744</v>
       </c>
       <c r="J96">
-        <v>402.74614004940651</v>
+        <v>2043.9368226986251</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3475,31 +3475,31 @@
         <v>423</v>
       </c>
       <c r="B97">
-        <v>4718.3750551588519</v>
+        <v>569.24286713130175</v>
       </c>
       <c r="C97">
-        <v>14562.55520073831</v>
+        <v>1063.945455293366</v>
       </c>
       <c r="D97">
-        <v>2767.1559195301488</v>
+        <v>1104.359133894385</v>
       </c>
       <c r="E97">
-        <v>14431.6019106328</v>
+        <v>1265.0829982148241</v>
       </c>
       <c r="F97">
-        <v>18327.024237497979</v>
+        <v>1843.313871434081</v>
       </c>
       <c r="G97">
-        <v>13810.035587699</v>
+        <v>2226.9010325445461</v>
       </c>
       <c r="H97">
-        <v>9544.1419363559089</v>
+        <v>1490.568314772247</v>
       </c>
       <c r="I97">
-        <v>26364.635690434581</v>
+        <v>1837.9018830895279</v>
       </c>
       <c r="J97">
-        <v>38470.031515010996</v>
+        <v>2098.6844436257188</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3507,31 +3507,31 @@
         <v>735</v>
       </c>
       <c r="B98">
-        <v>-2374.1380477515841</v>
+        <v>590.66136977476867</v>
       </c>
       <c r="C98">
-        <v>-2210.1474330698102</v>
+        <v>1018.449958673896</v>
       </c>
       <c r="D98">
-        <v>-2203.993215978709</v>
+        <v>1058.6226168260021</v>
       </c>
       <c r="E98">
-        <v>-2170.8512709083502</v>
+        <v>1157.1381714928641</v>
       </c>
       <c r="F98">
-        <v>-1969.090306798257</v>
+        <v>1912.617960051628</v>
       </c>
       <c r="G98">
-        <v>-1927.9464028799521</v>
+        <v>2142.749480337287</v>
       </c>
       <c r="H98">
-        <v>-2077.8803556265289</v>
+        <v>1415.9310045667601</v>
       </c>
       <c r="I98">
-        <v>-1972.2516169169851</v>
+        <v>1876.4534662769511</v>
       </c>
       <c r="J98">
-        <v>-1845.3684467875969</v>
+        <v>2327.3759719998438</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3539,31 +3539,31 @@
         <v>281</v>
       </c>
       <c r="B99">
-        <v>-1933.199799738918</v>
+        <v>649.93703272985601</v>
       </c>
       <c r="C99">
-        <v>-1762.2493709559969</v>
+        <v>1062.276955576905</v>
       </c>
       <c r="D99">
-        <v>-1761.786657331023</v>
+        <v>1068.348381698544</v>
       </c>
       <c r="E99">
-        <v>-1719.731388099751</v>
+        <v>1183.1717317433061</v>
       </c>
       <c r="F99">
-        <v>-1527.7313211212561</v>
+        <v>1803.8334870870631</v>
       </c>
       <c r="G99">
-        <v>-1449.1502256448071</v>
+        <v>2129.312337957349</v>
       </c>
       <c r="H99">
-        <v>-1620.106539964987</v>
+        <v>1413.5524929149151</v>
       </c>
       <c r="I99">
-        <v>-1492.3687599517359</v>
+        <v>1912.0659111698651</v>
       </c>
       <c r="J99">
-        <v>-1373.683609340995</v>
+        <v>2277.5016691221949</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3571,31 +3571,31 @@
         <v>178</v>
       </c>
       <c r="B100">
-        <v>-3871.266396669414</v>
+        <v>870.82616028560574</v>
       </c>
       <c r="C100">
-        <v>-3782.869189015616</v>
+        <v>1119.6060712327139</v>
       </c>
       <c r="D100">
-        <v>-3738.7241262598181</v>
+        <v>1283.1682575802549</v>
       </c>
       <c r="E100">
-        <v>-3714.6483690156588</v>
+        <v>1356.657344495256</v>
       </c>
       <c r="F100">
-        <v>-3608.0003251747398</v>
+        <v>1789.515720883825</v>
       </c>
       <c r="G100">
-        <v>-3591.983933143521</v>
+        <v>1986.968776683203</v>
       </c>
       <c r="H100">
-        <v>-3698.547579679298</v>
+        <v>1400.152438705629</v>
       </c>
       <c r="I100">
-        <v>-3624.0971649325338</v>
+        <v>1699.5629183863059</v>
       </c>
       <c r="J100">
-        <v>-3546.9150485519681</v>
+        <v>1993.5423117472089</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3603,69 +3603,69 @@
         <v>592</v>
       </c>
       <c r="B101">
-        <v>10800.28295438545</v>
+        <v>478.35349394004299</v>
       </c>
       <c r="C101">
-        <v>21929.163825948599</v>
+        <v>981.85944534032967</v>
       </c>
       <c r="D101">
-        <v>18160.909561310869</v>
+        <v>1008.036949567237</v>
       </c>
       <c r="E101">
-        <v>28652.41579795608</v>
+        <v>1187.989782424715</v>
       </c>
       <c r="F101">
-        <v>27925.852781701531</v>
+        <v>1835.2099688406349</v>
       </c>
       <c r="G101">
-        <v>59928.818369830093</v>
+        <v>2336.3369749430749</v>
       </c>
       <c r="H101">
-        <v>19018.781140645991</v>
+        <v>1396.13102390324</v>
       </c>
       <c r="I101">
-        <v>50295.057627462003</v>
+        <v>1928.858652183653</v>
       </c>
       <c r="J101">
-        <v>49138.418368537306</v>
+        <v>2347.223708857071</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="B102">
-        <f>SUM(B2:B101)/100</f>
-        <v>-289.61312079472253</v>
+        <f>D66</f>
+        <v>1567.766718603305</v>
       </c>
       <c r="C102">
         <f t="shared" ref="C102:J102" si="0">SUM(C2:C101)/100</f>
-        <v>1263.9970913433092</v>
+        <v>1064.0602975913541</v>
       </c>
       <c r="D102">
         <f t="shared" si="0"/>
-        <v>1402.8003224971815</v>
+        <v>1102.6084156368704</v>
       </c>
       <c r="E102">
         <f t="shared" si="0"/>
-        <v>2101.3672176741293</v>
+        <v>1216.7573700522744</v>
       </c>
       <c r="F102">
         <f t="shared" si="0"/>
-        <v>4707.2603678032719</v>
+        <v>1864.9375762936509</v>
       </c>
       <c r="G102">
         <f t="shared" si="0"/>
-        <v>6146.9404601795222</v>
+        <v>2193.8959107342248</v>
       </c>
       <c r="H102">
         <f t="shared" si="0"/>
-        <v>2338.313508416732</v>
+        <v>1398.7473513811046</v>
       </c>
       <c r="I102">
         <f t="shared" si="0"/>
-        <v>4089.9682692052634</v>
+        <v>1842.4980976882052</v>
       </c>
       <c r="J102">
         <f t="shared" si="0"/>
-        <v>6456.2112968706142</v>
+        <v>2188.0537442676641</v>
       </c>
     </row>
   </sheetData>
